--- a/FASE III - Informe/9100 Evaluacion de evidencia/9110 Revision analitica final/9111 Revision analitica final.xlsx
+++ b/FASE III - Informe/9100 Evaluacion de evidencia/9110 Revision analitica final/9111 Revision analitica final.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\CPAlmeida\CLIENTES\Telcodata\FASE I Planeacion y Riesgos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\TELCODATA\FASE III - Informe\9100 Evaluacion de evidencia\9110 Revision analitica final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2273E6F-6C9C-4B57-9606-0A658CD4CD8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5749E1C9-1FC7-4986-B2CD-E421BA6E3ECC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BG" sheetId="3" r:id="rId1"/>
     <sheet name="ER" sheetId="2" r:id="rId2"/>
-    <sheet name="BC19" sheetId="1" r:id="rId3"/>
-    <sheet name="BC18" sheetId="4" r:id="rId4"/>
+    <sheet name="BC 20" sheetId="5" r:id="rId3"/>
+    <sheet name="BC19" sheetId="1" r:id="rId4"/>
+    <sheet name="BC18" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="469">
   <si>
     <t xml:space="preserve"> ACTIVOS</t>
   </si>
@@ -728,9 +729,6 @@
     <t>ACTIVOS</t>
   </si>
   <si>
-    <t>…Efectivos y equivalentes de efectivo</t>
-  </si>
-  <si>
     <t>Variacion</t>
   </si>
   <si>
@@ -740,33 +738,12 @@
     <t>Al 31 de diciembre del 2019</t>
   </si>
   <si>
-    <t>...Cuentas por cobrar comerciales y otras</t>
-  </si>
-  <si>
-    <t>…Inventarios</t>
-  </si>
-  <si>
-    <t>…Otros créditos tributarios</t>
-  </si>
-  <si>
     <t>TOTAL ACTIVOS</t>
   </si>
   <si>
     <t>PASIVOS Y PATRIMONIO</t>
   </si>
   <si>
-    <t>…Obligaciones financieras, corto plazo</t>
-  </si>
-  <si>
-    <t>…Cuentas por pagar, partes relacionadas</t>
-  </si>
-  <si>
-    <t>…Cuentas por cobrar, partes relacionadas</t>
-  </si>
-  <si>
-    <t>…Impuestos por pagar</t>
-  </si>
-  <si>
     <t>Total Pasivos Corrientes</t>
   </si>
   <si>
@@ -806,9 +783,6 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>Activos no corrientes</t>
-  </si>
-  <si>
     <t>ESTADO DE RESULTADOS</t>
   </si>
   <si>
@@ -824,9 +798,6 @@
     <t>Gastos financieros</t>
   </si>
   <si>
-    <t>Otros egresos (ingresos)</t>
-  </si>
-  <si>
     <t>Utilidad antes de IR</t>
   </si>
   <si>
@@ -836,9 +807,6 @@
     <t>Impuesto a la renta</t>
   </si>
   <si>
-    <t>…Proveedores y otras cuentas por pagar</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -1335,6 +1303,144 @@
   </si>
   <si>
     <t>Ingresos por ventas</t>
+  </si>
+  <si>
+    <t>ESTADO DE  SITUACION FINANCIERA</t>
+  </si>
+  <si>
+    <t>CORTE 31/12/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      RET. FTE. 1.75 %  VENTAS</t>
+  </si>
+  <si>
+    <t>1-1-1-05-01-016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      RET. IMPTO. 2.75% COMPRAS</t>
+  </si>
+  <si>
+    <t>2-1-1-01-02-009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTILIDAD  NETA  DEL EJERCICIO </t>
+  </si>
+  <si>
+    <t>ESTADO DE  RESULTADO</t>
+  </si>
+  <si>
+    <t>6-1-1-02-01-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      IMPUESTO A LA SALIDA DE DIVISAS</t>
+  </si>
+  <si>
+    <t>6-1-1-02-01-017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      SUMINISTROS DE OFICINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      INTERESES Y COMISIONES A DOCUMENTO</t>
+  </si>
+  <si>
+    <t>6-1-1-02-01-047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OTROS INGRESOS Y GASTOS</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  INGRESOS NO OPERATIVOS</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   OTROS INGRESOS</t>
+  </si>
+  <si>
+    <t>7-1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OTROS INGRESOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     OTROS NO OPERACIONALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      OTROS INGRESOS NO OPERACIONALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  GASTOS NO DEDUCIBLES</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   GASTOS NO DEDUCIBLES</t>
+  </si>
+  <si>
+    <t>7-3-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GASTOS NO DEDUCIBLES</t>
+  </si>
+  <si>
+    <t>7-3-1-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     GASTOS NO DEDUCIBLES</t>
+  </si>
+  <si>
+    <t>7-3-1-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      OTROS GASTOS POR AJUSTES CTAS</t>
+  </si>
+  <si>
+    <t>7-3-1-01-01-001</t>
+  </si>
+  <si>
+    <t>Efectivo y equivalentes de efectivo</t>
+  </si>
+  <si>
+    <t>Inventarios</t>
+  </si>
+  <si>
+    <t>Activos por impuestos corrientes</t>
+  </si>
+  <si>
+    <t>Cuentas por cobrar:</t>
+  </si>
+  <si>
+    <t>...Comerciales</t>
+  </si>
+  <si>
+    <t>…Partes relacionadas</t>
+  </si>
+  <si>
+    <t>…Otras cuentas por cobrar</t>
+  </si>
+  <si>
+    <t>Pasivos por impuestos corrientes</t>
+  </si>
+  <si>
+    <t>Cuentas por pagar:</t>
+  </si>
+  <si>
+    <t>…Proveedores</t>
+  </si>
+  <si>
+    <t>…Otras cuentas por pagar</t>
+  </si>
+  <si>
+    <t>Otros ingresos (egresos)</t>
+  </si>
+  <si>
+    <t>Utilidad operacional</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1453,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1415,6 +1521,22 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1507,7 +1629,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1540,8 +1662,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1565,6 +1685,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1906,627 +2039,735 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.7109375" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>230</v>
       </c>
       <c r="C5" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="12">
         <v>2019</v>
       </c>
-      <c r="D5" s="12">
+      <c r="E5" s="12">
         <v>2018</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>232</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>231</v>
+        <v>456</v>
       </c>
       <c r="C7" s="17">
+        <f>+'BC 20'!F11</f>
+        <v>2679.05</v>
+      </c>
+      <c r="D7" s="17">
         <f>+'BC19'!G9</f>
         <v>3671.75</v>
       </c>
-      <c r="D7" s="17">
+      <c r="E7" s="17">
         <v>51822</v>
       </c>
-      <c r="E7" s="17">
+      <c r="F7" s="17">
         <f>+C7-D7</f>
-        <v>-48150.25</v>
-      </c>
-      <c r="F7" s="28">
-        <f>+E7/D7</f>
-        <v>-0.92914688742233031</v>
-      </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-992.69999999999982</v>
+      </c>
+      <c r="G7" s="26">
+        <f>+F7/D7</f>
+        <v>-0.27036154422278202</v>
+      </c>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="17">
-        <f>+'BC19'!F13+'BC19'!E32</f>
-        <v>190181.96</v>
-      </c>
-      <c r="D8" s="17">
+        <v>459</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="C9" s="17">
+        <f>+'BC 20'!F14</f>
+        <v>178185.83</v>
+      </c>
+      <c r="D9" s="17">
+        <v>189984</v>
+      </c>
+      <c r="E9" s="17">
         <v>750</v>
       </c>
-      <c r="E8" s="17">
-        <f t="shared" ref="E8:E14" si="0">+C8-D8</f>
-        <v>189431.96</v>
-      </c>
-      <c r="F8" s="28">
-        <f t="shared" ref="F8:F14" si="1">+E8/D8</f>
-        <v>252.57594666666665</v>
-      </c>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="F9" s="17">
+        <f t="shared" ref="F9:F15" si="0">+C9-D9</f>
+        <v>-11798.170000000013</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" ref="G9:G15" si="1">+F9/D9</f>
+        <v>-6.2100861125147448E-2</v>
+      </c>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="C10" s="17">
+        <f>+'BC 20'!F16+'BC 20'!E29</f>
+        <v>65926.94</v>
+      </c>
+      <c r="D10" s="17">
         <f>+'BC19'!F15+'BC19'!E31</f>
         <v>144647.10999999999</v>
       </c>
-      <c r="D9" s="17">
+      <c r="E10" s="17">
         <f>134277-750</f>
         <v>133527</v>
       </c>
-      <c r="E9" s="17">
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
-        <v>11120.109999999986</v>
-      </c>
-      <c r="F9" s="28">
+        <v>-78720.169999999984</v>
+      </c>
+      <c r="G10" s="26">
         <f t="shared" si="1"/>
-        <v>8.3279861001894648E-2</v>
-      </c>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="17">
-        <f>+'BC19'!G18</f>
-        <v>173645.56</v>
-      </c>
-      <c r="D10" s="17">
+        <v>-0.54422221086892086</v>
+      </c>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C11" s="17">
+        <f>+'BC 20'!E30</f>
+        <v>197.96</v>
+      </c>
+      <c r="D11" s="17">
+        <v>198</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" s="17">
+        <f>+'BC 20'!F20</f>
+        <v>114096.31</v>
+      </c>
+      <c r="D12" s="17">
+        <v>137808</v>
+      </c>
+      <c r="E12" s="17">
         <v>153179</v>
       </c>
-      <c r="E10" s="17">
+      <c r="F12" s="17">
         <f t="shared" si="0"/>
-        <v>20466.559999999998</v>
-      </c>
-      <c r="F10" s="28">
+        <v>-23711.690000000002</v>
+      </c>
+      <c r="G12" s="26">
         <f t="shared" si="1"/>
-        <v>0.13361204864896623</v>
-      </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" s="17">
+        <v>-0.17206323290375017</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C13" s="17">
+        <f>+'BC 20'!H32</f>
+        <v>221771.13</v>
+      </c>
+      <c r="D13" s="17">
         <f>+'BC19'!H34</f>
         <v>81714.009999999995</v>
       </c>
-      <c r="D11" s="17">
+      <c r="E13" s="17">
         <v>199832</v>
       </c>
-      <c r="E11" s="17">
+      <c r="F13" s="17">
         <f t="shared" si="0"/>
-        <v>-118117.99</v>
-      </c>
-      <c r="F11" s="28">
+        <v>140057.12</v>
+      </c>
+      <c r="G13" s="26">
         <f t="shared" si="1"/>
-        <v>-0.59108646262860809</v>
-      </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="14">
-        <f>SUM(C7:C11)</f>
-        <v>593860.3899999999</v>
-      </c>
-      <c r="D12" s="14">
-        <f>SUM(D7:D11)</f>
+        <v>1.7139915174888616</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="14">
+        <f>SUM(C7:C13)</f>
+        <v>582857.22</v>
+      </c>
+      <c r="D14" s="14">
+        <f>SUM(D7:D13)</f>
+        <v>558022.87</v>
+      </c>
+      <c r="E14" s="14">
+        <f>SUM(E7:E13)</f>
         <v>539110</v>
       </c>
-      <c r="E12" s="14">
+      <c r="F14" s="14">
         <f t="shared" si="0"/>
-        <v>54750.389999999898</v>
-      </c>
-      <c r="F12" s="30">
+        <v>24834.349999999977</v>
+      </c>
+      <c r="G14" s="28">
         <f t="shared" si="1"/>
-        <v>0.10155699207953831</v>
-      </c>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>5587181</v>
-      </c>
-      <c r="E13" s="14">
+        <v>4.4504179550920515E-2</v>
+      </c>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="14">
+        <f>+C14</f>
+        <v>582857.22</v>
+      </c>
+      <c r="D15" s="14">
+        <f>+D14</f>
+        <v>558022.87</v>
+      </c>
+      <c r="E15" s="14" t="e">
+        <f>+E14+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F15" s="14">
         <f t="shared" si="0"/>
-        <v>-5587181</v>
-      </c>
-      <c r="F13" s="30">
+        <v>24834.349999999977</v>
+      </c>
+      <c r="G15" s="28">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="14">
-        <f>+C12</f>
-        <v>593860.3899999999</v>
-      </c>
-      <c r="D14" s="14">
-        <f>+D12+D13</f>
-        <v>6126291</v>
-      </c>
-      <c r="E14" s="14">
-        <f t="shared" si="0"/>
-        <v>-5532430.6100000003</v>
-      </c>
-      <c r="F14" s="30">
-        <f t="shared" si="1"/>
-        <v>-0.90306363344477114</v>
-      </c>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
-        <v>239</v>
-      </c>
+        <v>4.4504179550920515E-2</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>247</v>
+      <c r="G16" s="17"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
+        <v>235</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="17"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C18" s="17">
-        <f>-'BC19'!G65</f>
-        <v>57027.839999999997</v>
-      </c>
-      <c r="D18" s="17">
+        <v>239</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="C19" s="17">
+        <f>-'BC19'!F65</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17">
         <v>57028</v>
       </c>
-      <c r="E18" s="17">
-        <f>+C18-D18</f>
-        <v>-0.16000000000349246</v>
-      </c>
-      <c r="F18" s="28">
-        <f t="shared" ref="F18:F22" si="2">+E18/D18</f>
-        <v>-2.8056393351247188E-6</v>
-      </c>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="17">
-        <f>-'BC19'!G60</f>
-        <v>22901.919999999998</v>
-      </c>
-      <c r="D19" s="17">
+      <c r="F19" s="17"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C20" s="17">
+        <f>-'BC 20'!F57</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
+        <v>23852</v>
+      </c>
+      <c r="E20" s="17">
         <v>168381</v>
       </c>
-      <c r="E19" s="17">
-        <f t="shared" ref="E19:E22" si="3">+C19-D19</f>
-        <v>-145479.08000000002</v>
-      </c>
-      <c r="F19" s="28">
+      <c r="F20" s="17">
+        <f t="shared" ref="F19:F24" si="2">+C20-D20</f>
+        <v>-23852</v>
+      </c>
+      <c r="G20" s="26">
+        <f t="shared" ref="G20:G24" si="3">+F20/D20</f>
+        <v>-1</v>
+      </c>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="C21" s="17">
+        <f>-'BC19'!F68</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="17">
+        <v>104454</v>
+      </c>
+      <c r="E21" s="17">
+        <v>5597988</v>
+      </c>
+      <c r="F21" s="17">
         <f t="shared" si="2"/>
-        <v>-0.86398750452842077</v>
-      </c>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+        <v>-104454</v>
+      </c>
+      <c r="G21" s="26">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="C23" s="17">
+        <f>-'BC 20'!G43</f>
+        <v>1213.1300000000001</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1406</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1162</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="2"/>
+        <v>-192.86999999999989</v>
+      </c>
+      <c r="G23" s="26">
+        <f t="shared" si="3"/>
+        <v>-0.13717638691322895</v>
+      </c>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="14">
+        <f>SUM(C19:C23)</f>
+        <v>1213.1300000000001</v>
+      </c>
+      <c r="D24" s="14">
+        <f>SUM(D19:D23)</f>
+        <v>129712</v>
+      </c>
+      <c r="E24" s="14">
+        <f>SUM(E19:E23)</f>
+        <v>5824559</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="2"/>
+        <v>-128498.87</v>
+      </c>
+      <c r="G24" s="28">
+        <f t="shared" si="3"/>
+        <v>-0.9906475114098926</v>
+      </c>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="17">
-        <f>-'BC19'!G68</f>
-        <v>48376.14</v>
-      </c>
-      <c r="D20" s="17">
-        <v>5597988</v>
-      </c>
-      <c r="E20" s="17">
-        <f t="shared" si="3"/>
-        <v>-5549611.8600000003</v>
-      </c>
-      <c r="F20" s="28">
-        <f t="shared" si="2"/>
-        <v>-0.99135829873161574</v>
-      </c>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="17">
-        <f>-'BC19'!G46</f>
-        <v>42010.11</v>
-      </c>
-      <c r="D21" s="17">
-        <v>1162</v>
-      </c>
-      <c r="E21" s="17">
-        <f t="shared" si="3"/>
-        <v>40848.11</v>
-      </c>
-      <c r="F21" s="28">
-        <f t="shared" si="2"/>
-        <v>35.153278829604133</v>
-      </c>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" s="14">
-        <f>SUM(C18:C21)</f>
-        <v>170316.01</v>
-      </c>
-      <c r="D22" s="14">
-        <f>SUM(D18:D21)</f>
-        <v>5824559</v>
-      </c>
-      <c r="E22" s="14">
-        <f t="shared" si="3"/>
-        <v>-5654242.9900000002</v>
-      </c>
-      <c r="F22" s="30">
-        <f t="shared" si="2"/>
-        <v>-0.97075898621681067</v>
-      </c>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="17">
+      <c r="C27" s="17">
+        <f>-'BC 20'!F71</f>
+        <v>20000</v>
+      </c>
+      <c r="D27" s="17">
         <f>-'BC19'!E76</f>
         <v>20000</v>
       </c>
-      <c r="D25" s="17">
+      <c r="E27" s="17">
         <v>20000</v>
       </c>
-      <c r="E25" s="17">
-        <f>+C25-D25</f>
+      <c r="F27" s="17">
+        <f t="shared" ref="F27:F33" si="4">+C27-D27</f>
         <v>0</v>
       </c>
-      <c r="F25" s="28">
-        <f t="shared" ref="F25:F31" si="4">+E25/D25</f>
+      <c r="G27" s="26">
+        <f t="shared" ref="G27:G33" si="5">+F27/D27</f>
         <v>0</v>
       </c>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C26" s="17">
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="17">
+        <f>-'BC 20'!E77</f>
+        <v>142203.51</v>
+      </c>
+      <c r="D28" s="17">
         <f>-'BC19'!E81</f>
         <v>142203.51</v>
       </c>
-      <c r="D26" s="17">
+      <c r="E28" s="17">
         <v>142204</v>
       </c>
-      <c r="E26" s="17">
-        <f t="shared" ref="E26:E31" si="5">+C26-D26</f>
-        <v>-0.48999999999068677</v>
-      </c>
-      <c r="F26" s="28">
+      <c r="F28" s="17">
         <f t="shared" si="4"/>
-        <v>-3.4457539871641217E-6</v>
-      </c>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="17">
+        <f>-'BC 20'!E78</f>
+        <v>204380.95</v>
+      </c>
+      <c r="D29" s="17">
         <f>-'BC19'!E82</f>
         <v>204380.95</v>
       </c>
-      <c r="D27" s="17">
+      <c r="E29" s="17">
         <v>204381</v>
       </c>
-      <c r="E27" s="17">
+      <c r="F29" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="26">
         <f t="shared" si="5"/>
-        <v>-4.9999999988358468E-2</v>
-      </c>
-      <c r="F27" s="28">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="17">
+        <f>-'BC 20'!J85</f>
+        <v>153332.70000000001</v>
+      </c>
+      <c r="D30" s="17">
+        <v>126579</v>
+      </c>
+      <c r="E30" s="17">
+        <v>61773</v>
+      </c>
+      <c r="F30" s="17">
         <f t="shared" si="4"/>
-        <v>-2.4464113586076233E-7</v>
-      </c>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C28" s="17">
-        <f>-'BC19'!J90</f>
-        <v>121812.33999999997</v>
-      </c>
-      <c r="D28" s="17">
-        <v>61773</v>
-      </c>
-      <c r="E28" s="17">
+        <v>26753.700000000012</v>
+      </c>
+      <c r="G30" s="26">
         <f t="shared" si="5"/>
-        <v>60039.339999999967</v>
-      </c>
-      <c r="F28" s="28">
-        <f t="shared" si="4"/>
-        <v>0.97193498777783116</v>
-      </c>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C29" s="17">
+        <v>0.21135970421633929</v>
+      </c>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="17">
+        <f>-'BC 20'!I79</f>
+        <v>61726.93</v>
+      </c>
+      <c r="D31" s="17">
         <f>-'BC19'!F86</f>
         <v>-64852.42</v>
       </c>
-      <c r="D29" s="17">
+      <c r="E31" s="17">
         <f>-428358+301732</f>
         <v>-126626</v>
       </c>
-      <c r="E29" s="17">
+      <c r="F31" s="17">
+        <f t="shared" si="4"/>
+        <v>126579.35</v>
+      </c>
+      <c r="G31" s="26">
         <f t="shared" si="5"/>
-        <v>61773.58</v>
-      </c>
-      <c r="F29" s="28">
+        <v>-1.9518061161017586</v>
+      </c>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="14">
+        <f>SUM(C27:C31)</f>
+        <v>581644.09000000008</v>
+      </c>
+      <c r="D32" s="14">
+        <f>SUM(D27:D31)</f>
+        <v>428311.04000000004</v>
+      </c>
+      <c r="E32" s="14">
+        <f>SUM(E27:E31)</f>
+        <v>301732</v>
+      </c>
+      <c r="F32" s="14">
         <f t="shared" si="4"/>
-        <v>-0.4878427811034069</v>
-      </c>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="14">
-        <f>SUM(C25:C29)</f>
-        <v>423544.38</v>
-      </c>
-      <c r="D30" s="14">
-        <f>SUM(D25:D29)</f>
-        <v>301732</v>
-      </c>
-      <c r="E30" s="14">
+        <v>153333.05000000005</v>
+      </c>
+      <c r="G32" s="28">
         <f t="shared" si="5"/>
-        <v>121812.38</v>
-      </c>
-      <c r="F30" s="30">
+        <v>0.35799462465408322</v>
+      </c>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="18">
+        <f>+C24+C32</f>
+        <v>582857.22000000009</v>
+      </c>
+      <c r="D33" s="18">
+        <f>+D24+D32</f>
+        <v>558023.04</v>
+      </c>
+      <c r="E33" s="18">
+        <f>+E24+E32</f>
+        <v>6126291</v>
+      </c>
+      <c r="F33" s="14">
         <f t="shared" si="4"/>
-        <v>0.40371051131467661</v>
-      </c>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="18">
-        <f>+C22+C30</f>
-        <v>593860.39</v>
-      </c>
-      <c r="D31" s="18">
-        <f>+D22+D30</f>
-        <v>6126291</v>
-      </c>
-      <c r="E31" s="14">
+        <v>24834.180000000051</v>
+      </c>
+      <c r="G33" s="27">
         <f t="shared" si="5"/>
-        <v>-5532430.6100000003</v>
-      </c>
-      <c r="F31" s="29">
-        <f t="shared" si="4"/>
-        <v>-0.90306363344477114</v>
-      </c>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="C33" s="32">
-        <f>+C12/C22</f>
-        <v>3.4868148332032898</v>
-      </c>
-      <c r="D33" s="32">
-        <f>+D12/D22</f>
+        <v>4.4503861345940213E-2</v>
+      </c>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" s="30">
+        <f>+C14/C24</f>
+        <v>480.45734587389637</v>
+      </c>
+      <c r="D35" s="30">
+        <f>+D14/D24</f>
+        <v>4.3020142315283092</v>
+      </c>
+      <c r="E35" s="30">
+        <f>+E14/E24</f>
         <v>9.2558080362822315E-2</v>
       </c>
-      <c r="E33" s="32">
-        <f>+C33-D33</f>
-        <v>3.3942567528404677</v>
-      </c>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="C34" s="33">
-        <f>+C22/C30</f>
-        <v>0.40212081199141397</v>
-      </c>
-      <c r="D34" s="33">
-        <f>+D22/D30</f>
+      <c r="F35" s="30">
+        <f>+D35-E35</f>
+        <v>4.2094561511654867</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C36" s="31">
+        <f>+C24/C32</f>
+        <v>2.0856912686931968E-3</v>
+      </c>
+      <c r="D36" s="31">
+        <f>+D24/D32</f>
+        <v>0.30284533408244624</v>
+      </c>
+      <c r="E36" s="31">
+        <f>+E24/E32</f>
         <v>19.303749685151061</v>
       </c>
-      <c r="E34" s="33">
-        <f t="shared" ref="E34:E35" si="6">+C34-D34</f>
-        <v>-18.901628873159648</v>
-      </c>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C35" s="34">
-        <f>+C18/C31</f>
-        <v>9.6029034702920651E-2</v>
-      </c>
-      <c r="D35" s="34">
-        <f>+D18/D31</f>
+      <c r="F36" s="31">
+        <f t="shared" ref="F36:F37" si="6">+D36-E36</f>
+        <v>-19.000904351068616</v>
+      </c>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="32">
+        <f>+C19/C33</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="32">
+        <f>+D19/D33</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="32">
+        <f>+E19/E33</f>
         <v>9.3087318248512851E-3</v>
       </c>
-      <c r="E35" s="34">
+      <c r="F37" s="32">
         <f t="shared" si="6"/>
-        <v>8.6720302878069366E-2</v>
-      </c>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>432</v>
-      </c>
-      <c r="C37" s="10">
-        <f>360/(+ER!C6/((BG!D8+BG!C8)/2))</f>
-        <v>60.789148153388986</v>
-      </c>
-      <c r="D37" s="10">
-        <f>360/(+ER!D6/((BG!E8+72370)/2))</f>
-        <v>59.917065759008665</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+        <v>-9.3087318248512851E-3</v>
+      </c>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>421</v>
+      </c>
+      <c r="C39" s="10" t="e">
+        <f>360/(+ER!B6/((BG!D9+BG!C9)/2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39" s="10">
+        <f>360/(+ER!D6/((BG!E9+BG!D9)/2))</f>
+        <v>60.726121409367479</v>
+      </c>
+      <c r="E39" s="10">
+        <f>360/(+ER!E6/((BG!F9+72370)/2))</f>
+        <v>13.86271638781273</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2536,327 +2777,2821 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C5" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="12">
         <v>2019</v>
       </c>
-      <c r="D5" s="12">
+      <c r="E5" s="12">
         <v>2018</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>232</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C6" s="17">
+        <f>-'BC 20'!J90</f>
+        <v>547020</v>
+      </c>
+      <c r="D6" s="17">
         <v>565360</v>
       </c>
-      <c r="D6" s="17">
+      <c r="E6" s="17">
         <v>786493</v>
       </c>
-      <c r="E6" s="17">
+      <c r="F6" s="17">
         <f>+C6-D6</f>
-        <v>-221133</v>
-      </c>
-      <c r="F6" s="26">
-        <f>+E6/C6</f>
-        <v>-0.39113662091410784</v>
-      </c>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-18340</v>
+      </c>
+      <c r="G6" s="45">
+        <f>+F6/D6</f>
+        <v>-3.2439507570397624E-2</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C7" s="17">
+        <f>'BC 20'!E101</f>
+        <v>264271.33</v>
+      </c>
+      <c r="D7" s="17">
         <v>254206</v>
       </c>
-      <c r="D7" s="17">
+      <c r="E7" s="17">
         <v>596245</v>
       </c>
-      <c r="E7" s="17">
-        <f>+C7-D7</f>
-        <v>-342039</v>
-      </c>
-      <c r="F7" s="26">
-        <f t="shared" ref="F7:F19" si="0">+E7/C7</f>
-        <v>-1.3455189885368559</v>
-      </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="17">
+        <f t="shared" ref="F7:F9" si="0">+C7-D7</f>
+        <v>10065.330000000016</v>
+      </c>
+      <c r="G7" s="45">
+        <f t="shared" ref="G7:G8" si="1">+F7/D7</f>
+        <v>3.959517084569214E-2</v>
+      </c>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C8" s="20">
         <f>+C6-C7</f>
-        <v>311154</v>
+        <v>282748.67</v>
       </c>
       <c r="D8" s="20">
         <f>+D6-D7</f>
+        <v>311154</v>
+      </c>
+      <c r="E8" s="20">
+        <f>+E6-E7</f>
         <v>190248</v>
       </c>
-      <c r="E8" s="20">
-        <f t="shared" ref="E8:E17" si="1">+C8-D8</f>
-        <v>120906</v>
-      </c>
-      <c r="F8" s="26">
+      <c r="F8" s="20">
         <f t="shared" si="0"/>
-        <v>0.38857286102701555</v>
-      </c>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-28405.330000000016</v>
+      </c>
+      <c r="G8" s="45">
+        <f t="shared" si="1"/>
+        <v>-9.1290261413962265E-2</v>
+      </c>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
       <c r="C9" s="24">
         <f>+C8/C6</f>
-        <v>0.55036436960520729</v>
+        <v>0.51688908997842853</v>
       </c>
       <c r="D9" s="24">
         <f>+D8/D6</f>
+        <v>0.55036436960520729</v>
+      </c>
+      <c r="E9" s="24">
+        <f>+E8/E6</f>
         <v>0.24189407915900077</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="17"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="17">
-        <f t="shared" si="1"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17">
+        <f t="shared" ref="F8:F19" si="2">+D10-E10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="45"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C11" s="17">
-        <v>148619</v>
+        <f>'BC 20'!F106-'BC 20'!E107</f>
+        <v>128331.45</v>
       </c>
       <c r="D11" s="17">
+        <v>148706</v>
+      </c>
+      <c r="E11" s="17">
         <f>125973-19672</f>
         <v>106301</v>
       </c>
-      <c r="E11" s="17">
-        <f t="shared" si="1"/>
-        <v>42318</v>
-      </c>
-      <c r="F11" s="26">
-        <f t="shared" si="0"/>
-        <v>0.28474152026322341</v>
-      </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="17">
+        <f>+C11-D11</f>
+        <v>-20374.550000000003</v>
+      </c>
+      <c r="G11" s="45">
+        <f>+F11/D11</f>
+        <v>-0.13701229271179377</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
       <c r="C12" s="24">
         <f>+C11/C6</f>
-        <v>0.26287498231215511</v>
+        <v>0.23460102007239222</v>
       </c>
       <c r="D12" s="24">
         <f>+D11/D6</f>
+        <v>0.26302886656289798</v>
+      </c>
+      <c r="E12" s="24">
+        <f>+E11/E6</f>
         <v>0.13515822772739236</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="C13" s="17">
-        <f>+'BC19'!E123+'BC19'!E124</f>
-        <v>119.5</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="F12" s="17"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="C13" s="47">
+        <f>+C8-C11</f>
+        <v>154417.21999999997</v>
+      </c>
+      <c r="D13" s="47">
+        <f>+D8-D11</f>
+        <v>162448</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="20">
+        <f>+C13-D13</f>
+        <v>-8030.7800000000279</v>
+      </c>
+      <c r="G13" s="45">
+        <f>+F13/D13</f>
+        <v>-4.9436004136708532E-2</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="17">
+        <f>-'BC 20'!E107-'BC 20'!E119</f>
+        <v>-74.16</v>
+      </c>
+      <c r="D15" s="17">
+        <v>-120</v>
+      </c>
+      <c r="E15" s="17">
         <v>2502</v>
       </c>
-      <c r="E13" s="17">
-        <f t="shared" si="1"/>
-        <v>-2382.5</v>
-      </c>
-      <c r="F13" s="26">
-        <f t="shared" si="0"/>
-        <v>-19.93723849372385</v>
-      </c>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C15" s="20">
-        <f>+C8-C11-C13</f>
-        <v>162415.5</v>
-      </c>
-      <c r="D15" s="20">
-        <f>+D19+D18</f>
+      <c r="F15" s="17">
+        <f>+C15-D15</f>
+        <v>45.84</v>
+      </c>
+      <c r="G15" s="45">
+        <f>+F15/D15</f>
+        <v>-0.38200000000000001</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="C16" s="17">
+        <f>-'BC 20'!E125-'BC 20'!E130</f>
+        <v>-1010.36</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="20">
+        <f>SUM(C13:C16)</f>
+        <v>153332.69999999998</v>
+      </c>
+      <c r="D17" s="20">
+        <f>SUM(D13:D16)</f>
+        <v>162328</v>
+      </c>
+      <c r="E17" s="20">
+        <f>+E21+E20</f>
         <v>81445</v>
       </c>
-      <c r="E15" s="20">
-        <f t="shared" si="1"/>
-        <v>80970.5</v>
-      </c>
-      <c r="F15" s="26">
-        <f t="shared" si="0"/>
-        <v>0.49853924040501063</v>
-      </c>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="24">
-        <f>+C15/C6</f>
-        <v>0.28727801754634213</v>
-      </c>
-      <c r="D16" s="24">
-        <f>+D15/D6</f>
+      <c r="F17" s="20">
+        <f>+C17-D17</f>
+        <v>-8995.3000000000175</v>
+      </c>
+      <c r="G17" s="45">
+        <f>+F17/D17</f>
+        <v>-5.5414346261889617E-2</v>
+      </c>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="24">
+        <f>+C17/C6</f>
+        <v>0.28030547329165295</v>
+      </c>
+      <c r="D18" s="24">
+        <f>+D17/D6</f>
+        <v>0.28712324890335361</v>
+      </c>
+      <c r="E18" s="24">
+        <f>+E17/E6</f>
         <v>0.10355464066431615</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="17">
+      <c r="F18" s="17"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="17">
         <v>0</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D19" s="17">
         <v>0</v>
       </c>
-      <c r="E17" s="17">
-        <f t="shared" si="1"/>
+      <c r="E19" s="17">
         <v>0</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" s="17">
-        <v>40604</v>
-      </c>
-      <c r="D18" s="17">
+      <c r="F19" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="45"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17">
+        <v>35749</v>
+      </c>
+      <c r="E20" s="17">
         <v>19672</v>
       </c>
-      <c r="E18" s="17">
-        <f t="shared" ref="E18:E19" si="2">+C18-D18</f>
-        <v>20932</v>
-      </c>
-      <c r="F18" s="26">
-        <f t="shared" si="0"/>
-        <v>0.51551571273766128</v>
-      </c>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C19" s="14">
-        <f>+C15-C18</f>
-        <v>121811.5</v>
-      </c>
-      <c r="D19" s="14">
+      <c r="F20" s="17">
+        <f t="shared" ref="F20:F21" si="3">+C20-D20</f>
+        <v>-35749</v>
+      </c>
+      <c r="G20" s="45">
+        <f t="shared" ref="G20:G21" si="4">+F20/D20</f>
+        <v>-1</v>
+      </c>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="14">
+        <f>+C17-C20</f>
+        <v>153332.69999999998</v>
+      </c>
+      <c r="D21" s="14">
+        <f>+D17-D20</f>
+        <v>126579</v>
+      </c>
+      <c r="E21" s="14">
         <v>61773</v>
       </c>
-      <c r="E19" s="14">
-        <f t="shared" si="2"/>
-        <v>60038.5</v>
-      </c>
-      <c r="F19" s="26">
-        <f t="shared" si="0"/>
-        <v>0.49288039306633608</v>
-      </c>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="25">
-        <f>+C19/C6</f>
-        <v>0.2154582920616952</v>
-      </c>
-      <c r="D20" s="25">
-        <f>+D19/D6</f>
+      <c r="F21" s="14">
+        <f t="shared" si="3"/>
+        <v>26753.699999999983</v>
+      </c>
+      <c r="G21" s="45">
+        <f t="shared" si="4"/>
+        <v>0.21135970421633907</v>
+      </c>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="25">
+        <f>+C21/C6</f>
+        <v>0.28030547329165295</v>
+      </c>
+      <c r="D22" s="25">
+        <f>+D21/D6</f>
+        <v>0.22389097212395642</v>
+      </c>
+      <c r="E22" s="25">
+        <f>+E21/E6</f>
         <v>7.8542339219802332E-2</v>
       </c>
-      <c r="F20" s="27"/>
+      <c r="G22" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9396899F-A8AB-4DBF-AFA4-160DCFF68FAC}">
+  <dimension ref="A2:J132"/>
+  <sheetViews>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>582857.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>361086.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>361086.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2679.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2679.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2679.05</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5">
+        <v>183055.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>178185.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>178185.83</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4870</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="5">
+        <v>114096.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="5">
+        <v>114096.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>86113.69</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2">
+        <v>27982.62</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>425</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5">
+        <v>61254.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5">
+        <v>61254.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2">
+        <v>61056.94</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>197.96</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>37</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="5">
+        <v>221771.13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>38</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="H32" s="5">
+        <v>221771.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>39</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="G33" s="5">
+        <v>190016.18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+      <c r="F34" s="5">
+        <v>190016.18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2">
+        <v>190016.18</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>43</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="G36" s="5">
+        <v>31754.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>44</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+      <c r="F37" s="5">
+        <v>31754.95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2">
+        <v>17354.150000000001</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39" s="2">
+        <v>14400.8</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>49</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5">
+        <v>-1213.1300000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>50</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2</v>
+      </c>
+      <c r="I41" s="5">
+        <v>-1213.1300000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>51</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3</v>
+      </c>
+      <c r="H42" s="5">
+        <v>-1213.1300000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>52</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="3">
+        <v>4</v>
+      </c>
+      <c r="G43" s="5">
+        <v>-1213.1300000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>53</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="3">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>-704.57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>-704.57</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>62</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>-508.56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>-508.56</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>69</v>
+      </c>
+      <c r="B53" t="s">
+        <v>427</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>71</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="3">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>74</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>75</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="3">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>78</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>81</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="3">
+        <v>4</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>82</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="3">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>83</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>85</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="3">
+        <v>4</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>86</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="3">
+        <v>5</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>87</v>
+      </c>
+      <c r="B66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>89</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="J67" s="5">
+        <v>-428311.39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>90</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2</v>
+      </c>
+      <c r="I68" s="5">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>91</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="3">
+        <v>3</v>
+      </c>
+      <c r="H69" s="5">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>92</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" s="3">
+        <v>4</v>
+      </c>
+      <c r="G70" s="5">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>93</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="3">
+        <v>5</v>
+      </c>
+      <c r="F71" s="5">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>94</v>
+      </c>
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72" s="2">
+        <v>-20000</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>96</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2</v>
+      </c>
+      <c r="I73" s="5">
+        <v>-346584.46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>97</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="3">
+        <v>3</v>
+      </c>
+      <c r="H74" s="5">
+        <v>-346584.46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>98</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="3">
+        <v>4</v>
+      </c>
+      <c r="G75" s="5">
+        <v>-346584.46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>99</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="3">
+        <v>5</v>
+      </c>
+      <c r="F76" s="5">
+        <v>-346584.46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>100</v>
+      </c>
+      <c r="B77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="E77" s="2">
+        <v>-142203.51</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>102</v>
+      </c>
+      <c r="B78" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2">
+        <v>-204380.95</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>104</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="5">
+        <v>-61726.93</v>
+      </c>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>105</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="3">
+        <v>3</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="5">
+        <v>-61726.93</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>106</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D81" s="3">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="5">
+        <v>-61726.93</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>107</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" s="3">
+        <v>5</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="5">
+        <v>-61726.93</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>108</v>
+      </c>
+      <c r="B83" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83" s="2">
+        <v>-61726.93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="8">
+        <f>+J132</f>
+        <v>-153332.70000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B87" s="42" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>110</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="5">
+        <v>-547020</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>111</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91" s="3">
+        <v>2</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="5">
+        <v>-547020</v>
+      </c>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>112</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D92" s="3">
+        <v>3</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="5">
+        <v>-547020</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>113</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D93" s="3">
+        <v>4</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="5">
+        <v>-547020</v>
+      </c>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>114</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D94" s="3">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="5">
+        <v>-547020</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>115</v>
+      </c>
+      <c r="B95" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95">
+        <v>6</v>
+      </c>
+      <c r="E95" s="2">
+        <v>-547020</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>117</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="5">
+        <v>264271.33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>118</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D97" s="3">
+        <v>2</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="5">
+        <v>264271.33</v>
+      </c>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>119</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" s="3">
+        <v>3</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="5">
+        <v>264271.33</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>120</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D99" s="3">
+        <v>4</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="5">
+        <v>264271.33</v>
+      </c>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>121</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D100" s="3">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="5">
+        <v>264271.33</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>122</v>
+      </c>
+      <c r="B101" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="E101" s="2">
+        <v>264271.33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>124</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="5">
+        <v>128405.61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>125</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D103" s="3">
+        <v>2</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="5">
+        <v>128405.61</v>
+      </c>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>126</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D104" s="3">
+        <v>3</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="5">
+        <v>128351.97</v>
+      </c>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>127</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D105" s="3">
+        <v>4</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="5">
+        <v>128351.97</v>
+      </c>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>128</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D106" s="3">
+        <v>5</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="5">
+        <v>128351.97</v>
+      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>129</v>
+      </c>
+      <c r="B107" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>131</v>
+      </c>
+      <c r="B108" t="s">
+        <v>432</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>133</v>
+      </c>
+      <c r="B109" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109" s="2">
+        <v>2311.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>135</v>
+      </c>
+      <c r="B110" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>137</v>
+      </c>
+      <c r="B111" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111" s="2">
+        <v>78754.399999999994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>139</v>
+      </c>
+      <c r="B112" t="s">
+        <v>434</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>141</v>
+      </c>
+      <c r="B113" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D113">
+        <v>6</v>
+      </c>
+      <c r="E113" s="2">
+        <v>3245.59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>143</v>
+      </c>
+      <c r="B114" t="s">
+        <v>435</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D114">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>154.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>145</v>
+      </c>
+      <c r="B115" t="s">
+        <v>212</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115" s="2">
+        <v>43844.11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>147</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D116" s="3">
+        <v>3</v>
+      </c>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3">
+        <v>53.64</v>
+      </c>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>148</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D117" s="3">
+        <v>4</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3">
+        <v>53.64</v>
+      </c>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>149</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D118" s="3">
+        <v>5</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3">
+        <v>53.64</v>
+      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>150</v>
+      </c>
+      <c r="B119" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D119">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>53.64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>152</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="5">
+        <v>1010.36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>153</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D121" s="3">
+        <v>2</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3">
+        <v>-950.14</v>
+      </c>
+      <c r="J121" s="3"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>154</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D122" s="3">
+        <v>3</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3">
+        <v>-950.14</v>
+      </c>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>155</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D123" s="3">
+        <v>4</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3">
+        <v>-950.14</v>
+      </c>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>156</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D124" s="3">
+        <v>5</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3">
+        <v>-950.14</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>157</v>
+      </c>
+      <c r="B125" t="s">
+        <v>445</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="E125">
+        <v>-950.14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>159</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D126" s="3">
+        <v>2</v>
+      </c>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="5">
+        <v>1960.5</v>
+      </c>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>160</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D127" s="3">
+        <v>3</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="5">
+        <v>1960.5</v>
+      </c>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>161</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D128" s="3">
+        <v>4</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="5">
+        <v>1960.5</v>
+      </c>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>162</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D129" s="3">
+        <v>5</v>
+      </c>
+      <c r="E129" s="3"/>
+      <c r="F129" s="5">
+        <v>1960.5</v>
+      </c>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>163</v>
+      </c>
+      <c r="B130" t="s">
+        <v>454</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D130">
+        <v>6</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1960.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C131" s="1"/>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="8">
+        <f>SUM(J90:J131)</f>
+        <v>-153332.70000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J127"/>
   <sheetViews>
     <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5199,7 +7934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC762C6-0379-43F4-AE2C-4C3DECA054F9}">
   <dimension ref="A2:C140"/>
   <sheetViews>
@@ -5209,1527 +7944,1527 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="36" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="36"/>
+    <col min="1" max="1" width="16.42578125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="36">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="37">
+        <v>6126291.1699999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="37">
+        <v>339278.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="37">
+        <v>339278.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="37">
+        <v>51822.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="37">
+        <v>51822.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="37">
+        <v>199.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="C10" s="37">
+        <v>51622.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C11" s="37">
+        <v>72370.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C12" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="38">
-        <v>1</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="39">
-        <v>6126291.1699999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="C13" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="C14" s="37">
+        <v>72370.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="39">
-        <v>339278.36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="C15" s="37">
+        <v>72370.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" s="39">
-        <v>339278.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="C16" s="37">
+        <v>153179.07999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="37">
+        <v>153179.07999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="37">
+        <v>81134.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="37">
+        <v>72044.740000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" s="37">
+        <v>61156.94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="37">
+        <v>61156.94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="37">
+        <v>61156.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" s="37">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" s="37">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="37">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" s="37">
+        <v>199832.32000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C33" s="37">
+        <v>199832.32000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C34" s="37">
+        <v>199832.32000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C35" s="37">
+        <v>199832.32000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="C36" s="37">
+        <v>155556.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" s="37">
+        <v>44276.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C40" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C41" s="37">
+        <v>5587180.4900000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C42" s="37">
+        <v>5587180.4900000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" s="37">
+        <v>5587180.4900000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="C44" s="37">
+        <v>5587180.4900000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C45" s="37">
+        <v>5587180.4900000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="36">
+        <v>2</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" s="37">
+        <v>-5824559.1299999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="C47" s="37">
+        <v>-5824559.1299999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="C48" s="37">
+        <v>-5824559.1299999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="C49" s="37">
+        <v>-1162.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50" s="37">
+        <v>-624.79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="C51" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="C52" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C53" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="C54" s="37">
+        <v>-624.79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" s="37">
+        <v>-537.38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="C56" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C57" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="C58" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="C59" s="37">
+        <v>-537.38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="C60" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C61" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="C62" s="37">
+        <v>-149771.10999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="C63" s="37">
+        <v>-3851.11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="C64" s="37">
+        <v>-3851.11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C65" s="37">
+        <v>-145920</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="C66" s="37">
+        <v>-145920</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="C67" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="C68" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="C69" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C70" s="37">
+        <v>-57027.839999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C71" s="37">
+        <v>-57027.839999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C72" s="37">
+        <v>-57027.839999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C73" s="37">
+        <v>-5616598.0099999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C74" s="37">
+        <v>-18610.169999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="C75" s="37">
+        <v>-18610.169999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="C76" s="37">
+        <v>-5597987.8399999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C77" s="37">
+        <v>-5597987.8399999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="36">
+        <v>3</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="C78" s="37">
+        <v>-239959.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C79" s="37">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C80" s="37">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C81" s="37">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="C82" s="37">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="C83" s="37">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C84" s="37">
+        <v>-346584.46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C85" s="37">
+        <v>-346584.46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B86" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C86" s="37">
+        <v>-346584.46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C87" s="37">
+        <v>-346584.46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" s="37">
+        <v>-142203.51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="C89" s="37">
+        <v>-204380.95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C90" s="37">
+        <v>126625.06</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C91" s="37">
+        <v>126625.06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C92" s="37">
+        <v>126625.06</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C93" s="37">
+        <v>126625.06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="C94" s="37">
+        <v>126625.06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="C95" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="36">
+        <v>4</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="C96" s="37">
+        <v>-773977</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="C97" s="37">
+        <v>-773977</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="B98" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="C98" s="37">
+        <v>-773977</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="C99" s="37">
+        <v>-773977</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="C100" s="37">
+        <v>-773977</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="C101" s="37">
+        <v>-773977</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="36">
+        <v>5</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="C102" s="37">
+        <v>596244.65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C103" s="37">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="B104" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="C104" s="37">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="C105" s="37">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="C106" s="37">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="C107" s="37">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C108" s="37">
+        <v>581744.65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C109" s="37">
+        <v>581744.65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C110" s="37">
+        <v>581744.65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B111" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C111" s="37">
+        <v>581744.65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B112" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="C112" s="37">
+        <v>581744.65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="36">
+        <v>6</v>
+      </c>
+      <c r="B113" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C113" s="37">
+        <v>128475.32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C114" s="37">
+        <v>128475.32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="B115" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="C115" s="37">
+        <v>121430.27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B116" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C116" s="37">
+        <v>121430.27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C117" s="37">
+        <v>121430.27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="B118" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C118" s="37">
+        <v>1394.26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="C119" s="37">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="B120" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="C120" s="37">
+        <v>2696.04</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B121" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C121" s="37">
+        <v>11750.04</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B122" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="C122" s="37">
+        <v>361.08</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B123" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="C123" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B124" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="C124" s="37">
+        <v>71369.69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="B125" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="C125" s="37">
+        <v>292.60000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B126" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="C126" s="37">
+        <v>5432.95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B127" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="C127" s="37">
+        <v>27284.61</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="B128" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C128" s="37">
+        <v>7045.05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="B129" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C129" s="37">
+        <v>7045.05</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B130" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C130" s="37">
+        <v>7045.05</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="B131" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="C131" s="37">
+        <v>4542.84</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B132" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="C132" s="37">
+        <v>624.38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="B133" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="C133" s="37">
+        <v>1877.83</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="36">
         <v>7</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="39">
-        <v>51822.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="39">
-        <v>51822.17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="C9" s="39">
-        <v>199.81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="C10" s="39">
-        <v>51622.36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="39">
-        <v>72370.17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="C12" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="C14" s="39">
-        <v>72370.17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="C15" s="39">
-        <v>72370.17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="C16" s="39">
-        <v>153179.07999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="C17" s="39">
-        <v>153179.07999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="C18" s="39">
-        <v>81134.34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="C19" s="39">
-        <v>72044.740000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="C20" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="C21" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="C22" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="C23" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="C24" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="C25" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26" s="39">
-        <v>61156.94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>300</v>
-      </c>
-      <c r="C27" s="39">
-        <v>61156.94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="C28" s="39">
-        <v>61156.94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="C29" s="39">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="C30" s="39">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="C31" s="39">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="C32" s="39">
-        <v>199832.32000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
-        <v>310</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="C33" s="39">
-        <v>199832.32000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="C34" s="39">
-        <v>199832.32000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="C35" s="39">
-        <v>199832.32000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="C36" s="39">
-        <v>155556.31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="C37" s="39">
-        <v>44276.01</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>315</v>
-      </c>
-      <c r="C38" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="C39" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="C40" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="C41" s="39">
-        <v>5587180.4900000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="C42" s="39">
-        <v>5587180.4900000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="C43" s="39">
-        <v>5587180.4900000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="C44" s="39">
-        <v>5587180.4900000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="C45" s="39">
-        <v>5587180.4900000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="38">
-        <v>2</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="C46" s="39">
-        <v>-5824559.1299999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="C47" s="39">
-        <v>-5824559.1299999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="41" t="s">
-        <v>329</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="C48" s="39">
-        <v>-5824559.1299999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="C49" s="39">
-        <v>-1162.17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="C50" s="39">
-        <v>-624.79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="C51" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="C52" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="C53" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="C54" s="39">
-        <v>-624.79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="C55" s="39">
-        <v>-537.38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="C56" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="C57" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="C58" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="C59" s="39">
-        <v>-537.38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="C60" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="C61" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="C62" s="39">
-        <v>-149771.10999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="C63" s="39">
-        <v>-3851.11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="C64" s="39">
-        <v>-3851.11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="C65" s="39">
-        <v>-145920</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="C66" s="39">
-        <v>-145920</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="C67" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="C68" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="C69" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="C70" s="39">
-        <v>-57027.839999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="C71" s="39">
-        <v>-57027.839999999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="C72" s="39">
-        <v>-57027.839999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="C73" s="39">
-        <v>-5616598.0099999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="B74" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="C74" s="39">
-        <v>-18610.169999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="C75" s="39">
-        <v>-18610.169999999998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="C76" s="39">
-        <v>-5597987.8399999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="B77" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="C77" s="39">
-        <v>-5597987.8399999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="38">
-        <v>3</v>
-      </c>
-      <c r="B78" s="36" t="s">
-        <v>363</v>
-      </c>
-      <c r="C78" s="39">
-        <v>-239959.4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="40" t="s">
-        <v>364</v>
-      </c>
-      <c r="B79" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="C79" s="39">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="B80" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="C80" s="39">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B81" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="C81" s="39">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="B82" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="C82" s="39">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="C83" s="39">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="B84" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="C84" s="39">
-        <v>-346584.46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="B85" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="C85" s="39">
-        <v>-346584.46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="B86" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="C86" s="39">
-        <v>-346584.46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="B87" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="C87" s="39">
-        <v>-346584.46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B88" s="36" t="s">
-        <v>372</v>
-      </c>
-      <c r="C88" s="39">
-        <v>-142203.51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="B89" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="C89" s="39">
-        <v>-204380.95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="40" t="s">
-        <v>374</v>
-      </c>
-      <c r="B90" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="C90" s="39">
-        <v>126625.06</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="B91" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="C91" s="39">
-        <v>126625.06</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="C92" s="39">
-        <v>126625.06</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="B93" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="C93" s="39">
-        <v>126625.06</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="B94" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="C94" s="39">
-        <v>126625.06</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="C95" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="38">
-        <v>4</v>
-      </c>
-      <c r="B96" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="C96" s="39">
-        <v>-773977</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="B97" s="36" t="s">
-        <v>381</v>
-      </c>
-      <c r="C97" s="39">
-        <v>-773977</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="B98" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="C98" s="39">
-        <v>-773977</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B99" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="C99" s="39">
-        <v>-773977</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="B100" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="C100" s="39">
-        <v>-773977</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="B101" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="C101" s="39">
-        <v>-773977</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="38">
-        <v>5</v>
-      </c>
-      <c r="B102" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="C102" s="39">
-        <v>596244.65</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="B103" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="C103" s="39">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="41" t="s">
-        <v>389</v>
-      </c>
-      <c r="B104" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="C104" s="39">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="B105" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="C105" s="39">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="B106" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="C106" s="39">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="B107" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="C107" s="39">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="B108" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="C108" s="39">
-        <v>581744.65</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="B109" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="C109" s="39">
-        <v>581744.65</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="B110" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="C110" s="39">
-        <v>581744.65</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B111" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="C111" s="39">
-        <v>581744.65</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="B112" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="C112" s="39">
-        <v>581744.65</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="38">
-        <v>6</v>
-      </c>
-      <c r="B113" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="C113" s="39">
-        <v>128475.32</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="B114" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="C114" s="39">
-        <v>128475.32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="41" t="s">
-        <v>403</v>
-      </c>
-      <c r="B115" s="36" t="s">
-        <v>381</v>
-      </c>
-      <c r="C115" s="39">
-        <v>121430.27</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="B116" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="C116" s="39">
-        <v>121430.27</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="B117" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="C117" s="39">
-        <v>121430.27</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="B118" s="36" t="s">
-        <v>405</v>
-      </c>
-      <c r="C118" s="39">
-        <v>1394.26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="B119" s="36" t="s">
-        <v>406</v>
-      </c>
-      <c r="C119" s="39">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="B120" s="36" t="s">
-        <v>408</v>
-      </c>
-      <c r="C120" s="39">
-        <v>2696.04</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="B121" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="C121" s="39">
-        <v>11750.04</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="B122" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="C122" s="39">
-        <v>361.08</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="B123" s="36" t="s">
+      <c r="B134" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="C123" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="B124" s="36" t="s">
+      <c r="C134" s="37">
+        <v>-12515.61</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="C124" s="39">
-        <v>71369.69</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="38" t="s">
+      <c r="B135" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="B125" s="36" t="s">
+      <c r="C135" s="37">
+        <v>-12515.61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="C125" s="39">
-        <v>292.60000000000002</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="B126" s="36" t="s">
+      <c r="B136" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="C126" s="39">
-        <v>5432.95</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="B127" s="36" t="s">
+      <c r="C136" s="37">
+        <v>-12515.61</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="C127" s="39">
-        <v>27284.61</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="41" t="s">
+      <c r="B137" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="C137" s="37">
+        <v>-12515.61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="B128" s="36" t="s">
+      <c r="B138" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="C128" s="39">
-        <v>7045.05</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="B129" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="C129" s="39">
-        <v>7045.05</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="B130" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="C130" s="39">
-        <v>7045.05</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="B131" s="36" t="s">
+      <c r="C138" s="37">
+        <v>-12515.61</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="C131" s="39">
-        <v>4542.84</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="B132" s="36" t="s">
+      <c r="B139" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="C132" s="39">
-        <v>624.38</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="B133" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="C133" s="39">
-        <v>1877.83</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="38">
-        <v>7</v>
-      </c>
-      <c r="B134" s="36" t="s">
-        <v>422</v>
-      </c>
-      <c r="C134" s="39">
+      <c r="C139" s="37">
         <v>-12515.61</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="40" t="s">
-        <v>423</v>
-      </c>
-      <c r="B135" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="C135" s="39">
-        <v>-12515.61</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="B136" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="C136" s="39">
-        <v>-12515.61</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="B137" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="C137" s="39">
-        <v>-12515.61</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="B138" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="C138" s="39">
-        <v>-12515.61</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="B139" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="C139" s="39">
-        <v>-12515.61</v>
-      </c>
-    </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="38"/>
-      <c r="B140" s="42"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FASE III - Informe/9100 Evaluacion de evidencia/9110 Revision analitica final/9111 Revision analitica final.xlsx
+++ b/FASE III - Informe/9100 Evaluacion de evidencia/9110 Revision analitica final/9111 Revision analitica final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\TELCODATA\FASE III - Informe\9100 Evaluacion de evidencia\9110 Revision analitica final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5749E1C9-1FC7-4986-B2CD-E421BA6E3ECC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B7708B-BC99-4B82-AAF9-A9F933409033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BG" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="469">
   <si>
     <t xml:space="preserve"> ACTIVOS</t>
   </si>
@@ -1629,7 +1629,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1698,6 +1698,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2041,12 +2045,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2215,7 +2219,7 @@
       </c>
       <c r="C12" s="17">
         <f>+'BC 20'!F20</f>
-        <v>114096.31</v>
+        <v>142550.39000000001</v>
       </c>
       <c r="D12" s="17">
         <v>137808</v>
@@ -2225,11 +2229,11 @@
       </c>
       <c r="F12" s="17">
         <f t="shared" si="0"/>
-        <v>-23711.690000000002</v>
+        <v>4742.390000000014</v>
       </c>
       <c r="G12" s="26">
         <f t="shared" si="1"/>
-        <v>-0.17206323290375017</v>
+        <v>3.4413023917334362E-2</v>
       </c>
       <c r="H12" s="16"/>
     </row>
@@ -2239,7 +2243,7 @@
       </c>
       <c r="C13" s="17">
         <f>+'BC 20'!H32</f>
-        <v>221771.13</v>
+        <v>93444.75</v>
       </c>
       <c r="D13" s="17">
         <f>+'BC19'!H34</f>
@@ -2250,11 +2254,11 @@
       </c>
       <c r="F13" s="17">
         <f t="shared" si="0"/>
-        <v>140057.12</v>
+        <v>11730.740000000005</v>
       </c>
       <c r="G13" s="26">
         <f t="shared" si="1"/>
-        <v>1.7139915174888616</v>
+        <v>0.14355849137742727</v>
       </c>
       <c r="H13" s="16"/>
     </row>
@@ -2264,7 +2268,7 @@
       </c>
       <c r="C14" s="14">
         <f>SUM(C7:C13)</f>
-        <v>582857.22</v>
+        <v>482984.92</v>
       </c>
       <c r="D14" s="14">
         <f>SUM(D7:D13)</f>
@@ -2276,11 +2280,11 @@
       </c>
       <c r="F14" s="14">
         <f t="shared" si="0"/>
-        <v>24834.349999999977</v>
+        <v>-75037.950000000012</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" si="1"/>
-        <v>4.4504179550920515E-2</v>
+        <v>-0.13447110151596478</v>
       </c>
       <c r="H14" s="16"/>
     </row>
@@ -2290,7 +2294,7 @@
       </c>
       <c r="C15" s="14">
         <f>+C14</f>
-        <v>582857.22</v>
+        <v>482984.92</v>
       </c>
       <c r="D15" s="14">
         <f>+D14</f>
@@ -2302,11 +2306,11 @@
       </c>
       <c r="F15" s="14">
         <f t="shared" si="0"/>
-        <v>24834.349999999977</v>
+        <v>-75037.950000000012</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" si="1"/>
-        <v>4.4504179550920515E-2</v>
+        <v>-0.13447110151596478</v>
       </c>
       <c r="H15" s="16"/>
     </row>
@@ -2345,10 +2349,7 @@
       <c r="B19" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="C19" s="17">
-        <f>-'BC19'!F65</f>
-        <v>0</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17">
         <v>57028</v>
@@ -2362,7 +2363,7 @@
         <v>465</v>
       </c>
       <c r="C20" s="17">
-        <f>-'BC 20'!F57</f>
+        <f>-'BC 20'!F58</f>
         <v>0</v>
       </c>
       <c r="D20" s="17">
@@ -2372,7 +2373,7 @@
         <v>168381</v>
       </c>
       <c r="F20" s="17">
-        <f t="shared" ref="F19:F24" si="2">+C20-D20</f>
+        <f t="shared" ref="F20:F24" si="2">+C20-D20</f>
         <v>-23852</v>
       </c>
       <c r="G20" s="26">
@@ -2386,7 +2387,6 @@
         <v>461</v>
       </c>
       <c r="C21" s="17">
-        <f>-'BC19'!F68</f>
         <v>0</v>
       </c>
       <c r="D21" s="17">
@@ -2421,7 +2421,7 @@
         <v>463</v>
       </c>
       <c r="C23" s="17">
-        <f>-'BC 20'!G43</f>
+        <f>-'BC 20'!G44</f>
         <v>1213.1300000000001</v>
       </c>
       <c r="D23" s="17">
@@ -2491,7 +2491,7 @@
         <v>241</v>
       </c>
       <c r="C27" s="17">
-        <f>-'BC 20'!F71</f>
+        <f>-'BC 20'!F72</f>
         <v>20000</v>
       </c>
       <c r="D27" s="17">
@@ -2516,7 +2516,7 @@
         <v>242</v>
       </c>
       <c r="C28" s="17">
-        <f>-'BC 20'!E77</f>
+        <f>-'BC 20'!E78</f>
         <v>142203.51</v>
       </c>
       <c r="D28" s="17">
@@ -2541,7 +2541,7 @@
         <v>243</v>
       </c>
       <c r="C29" s="17">
-        <f>-'BC 20'!E78</f>
+        <f>-'BC 20'!E79</f>
         <v>204380.95</v>
       </c>
       <c r="D29" s="17">
@@ -2566,8 +2566,8 @@
         <v>244</v>
       </c>
       <c r="C30" s="17">
-        <f>-'BC 20'!J85</f>
-        <v>153332.70000000001</v>
+        <f>-'BC 20'!J86</f>
+        <v>53460.399999999994</v>
       </c>
       <c r="D30" s="17">
         <v>126579</v>
@@ -2577,11 +2577,11 @@
       </c>
       <c r="F30" s="17">
         <f t="shared" si="4"/>
-        <v>26753.700000000012</v>
+        <v>-73118.600000000006</v>
       </c>
       <c r="G30" s="26">
         <f t="shared" si="5"/>
-        <v>0.21135970421633929</v>
+        <v>-0.5776519011842407</v>
       </c>
       <c r="H30" s="16"/>
     </row>
@@ -2590,7 +2590,7 @@
         <v>245</v>
       </c>
       <c r="C31" s="17">
-        <f>-'BC 20'!I79</f>
+        <f>-'BC 20'!I80</f>
         <v>61726.93</v>
       </c>
       <c r="D31" s="17">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="C32" s="14">
         <f>SUM(C27:C31)</f>
-        <v>581644.09000000008</v>
+        <v>481771.79</v>
       </c>
       <c r="D32" s="14">
         <f>SUM(D27:D31)</f>
@@ -2629,11 +2629,11 @@
       </c>
       <c r="F32" s="14">
         <f t="shared" si="4"/>
-        <v>153333.05000000005</v>
+        <v>53460.749999999942</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" si="5"/>
-        <v>0.35799462465408322</v>
+        <v>0.12481758583668527</v>
       </c>
       <c r="H32" s="16"/>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C33" s="18">
         <f>+C24+C32</f>
-        <v>582857.22000000009</v>
+        <v>482984.92</v>
       </c>
       <c r="D33" s="18">
         <f>+D24+D32</f>
@@ -2655,17 +2655,23 @@
       </c>
       <c r="F33" s="14">
         <f t="shared" si="4"/>
-        <v>24834.180000000051</v>
+        <v>-75038.120000000054</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" si="5"/>
-        <v>4.4503861345940213E-2</v>
+        <v>-0.13447136519667727</v>
       </c>
       <c r="H33" s="19"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="C34" s="10">
+        <f>+C33-C15</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="10">
+        <f>+D33-D15</f>
+        <v>0.17000000004190952</v>
+      </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -2676,7 +2682,7 @@
       </c>
       <c r="C35" s="30">
         <f>+C14/C24</f>
-        <v>480.45734587389637</v>
+        <v>398.13121429690136</v>
       </c>
       <c r="D35" s="30">
         <f>+D14/D24</f>
@@ -2698,7 +2704,7 @@
       </c>
       <c r="C36" s="31">
         <f>+C24/C32</f>
-        <v>2.0856912686931968E-3</v>
+        <v>2.518059432246957E-3</v>
       </c>
       <c r="D36" s="31">
         <f>+D24/D32</f>
@@ -2777,10 +2783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,7 +2844,7 @@
         <v>422</v>
       </c>
       <c r="C6" s="17">
-        <f>-'BC 20'!J90</f>
+        <f>-'BC 20'!J91</f>
         <v>547020</v>
       </c>
       <c r="D6" s="17">
@@ -2862,8 +2868,8 @@
         <v>250</v>
       </c>
       <c r="C7" s="17">
-        <f>'BC 20'!E101</f>
-        <v>264271.33</v>
+        <f>'BC 20'!E102</f>
+        <v>392066.26</v>
       </c>
       <c r="D7" s="17">
         <v>254206</v>
@@ -2872,12 +2878,12 @@
         <v>596245</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" ref="F7:F9" si="0">+C7-D7</f>
-        <v>10065.330000000016</v>
+        <f t="shared" ref="F7:F8" si="0">+C7-D7</f>
+        <v>137860.26</v>
       </c>
       <c r="G7" s="45">
         <f t="shared" ref="G7:G8" si="1">+F7/D7</f>
-        <v>3.959517084569214E-2</v>
+        <v>0.54231709715742349</v>
       </c>
       <c r="H7" s="16"/>
     </row>
@@ -2887,7 +2893,7 @@
       </c>
       <c r="C8" s="20">
         <f>+C6-C7</f>
-        <v>282748.67</v>
+        <v>154953.74</v>
       </c>
       <c r="D8" s="20">
         <f>+D6-D7</f>
@@ -2899,11 +2905,11 @@
       </c>
       <c r="F8" s="20">
         <f t="shared" si="0"/>
-        <v>-28405.330000000016</v>
+        <v>-156200.26</v>
       </c>
       <c r="G8" s="45">
         <f t="shared" si="1"/>
-        <v>-9.1290261413962265E-2</v>
+        <v>-0.50200305957821534</v>
       </c>
       <c r="H8" s="16"/>
     </row>
@@ -2911,7 +2917,7 @@
       <c r="B9" s="16"/>
       <c r="C9" s="24">
         <f>+C8/C6</f>
-        <v>0.51688908997842853</v>
+        <v>0.28326887499542974</v>
       </c>
       <c r="D9" s="24">
         <f>+D8/D6</f>
@@ -2931,7 +2937,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17">
-        <f t="shared" ref="F8:F19" si="2">+D10-E10</f>
+        <f t="shared" ref="F10:F19" si="2">+D10-E10</f>
         <v>0</v>
       </c>
       <c r="G10" s="45"/>
@@ -2942,8 +2948,8 @@
         <v>252</v>
       </c>
       <c r="C11" s="17">
-        <f>'BC 20'!F106-'BC 20'!E107</f>
-        <v>128331.45</v>
+        <f>'BC 20'!F107-'BC 20'!E116-'BC 20'!E115</f>
+        <v>84885.209999999992</v>
       </c>
       <c r="D11" s="17">
         <v>148706</v>
@@ -2954,11 +2960,11 @@
       </c>
       <c r="F11" s="17">
         <f>+C11-D11</f>
-        <v>-20374.550000000003</v>
+        <v>-63820.790000000008</v>
       </c>
       <c r="G11" s="45">
         <f>+F11/D11</f>
-        <v>-0.13701229271179377</v>
+        <v>-0.42917427676085707</v>
       </c>
       <c r="H11" s="16"/>
     </row>
@@ -2966,7 +2972,7 @@
       <c r="B12" s="16"/>
       <c r="C12" s="24">
         <f>+C11/C6</f>
-        <v>0.23460102007239222</v>
+        <v>0.1551775255018098</v>
       </c>
       <c r="D12" s="24">
         <f>+D11/D6</f>
@@ -2986,7 +2992,7 @@
       </c>
       <c r="C13" s="47">
         <f>+C8-C11</f>
-        <v>154417.21999999997</v>
+        <v>70068.53</v>
       </c>
       <c r="D13" s="47">
         <f>+D8-D11</f>
@@ -2995,11 +3001,11 @@
       <c r="E13" s="43"/>
       <c r="F13" s="20">
         <f>+C13-D13</f>
-        <v>-8030.7800000000279</v>
+        <v>-92379.47</v>
       </c>
       <c r="G13" s="45">
         <f>+F13/D13</f>
-        <v>-4.9436004136708532E-2</v>
+        <v>-0.5686710208805279</v>
       </c>
       <c r="H13" s="16"/>
     </row>
@@ -3017,8 +3023,8 @@
         <v>253</v>
       </c>
       <c r="C15" s="17">
-        <f>-'BC 20'!E107-'BC 20'!E119</f>
-        <v>-74.16</v>
+        <f>-'BC 20'!E115-'BC 20'!E120</f>
+        <v>-207.74</v>
       </c>
       <c r="D15" s="17">
         <v>-120</v>
@@ -3028,11 +3034,11 @@
       </c>
       <c r="F15" s="17">
         <f>+C15-D15</f>
-        <v>45.84</v>
+        <v>-87.740000000000009</v>
       </c>
       <c r="G15" s="45">
         <f>+F15/D15</f>
-        <v>-0.38200000000000001</v>
+        <v>0.73116666666666674</v>
       </c>
       <c r="H15" s="23"/>
     </row>
@@ -3041,7 +3047,7 @@
         <v>467</v>
       </c>
       <c r="C16" s="17">
-        <f>-'BC 20'!E125-'BC 20'!E130</f>
+        <f>-'BC 20'!E126-'BC 20'!E131</f>
         <v>-1010.36</v>
       </c>
       <c r="D16" s="17"/>
@@ -3056,7 +3062,7 @@
       </c>
       <c r="C17" s="20">
         <f>SUM(C13:C16)</f>
-        <v>153332.69999999998</v>
+        <v>68850.429999999993</v>
       </c>
       <c r="D17" s="20">
         <f>SUM(D13:D16)</f>
@@ -3068,11 +3074,11 @@
       </c>
       <c r="F17" s="20">
         <f>+C17-D17</f>
-        <v>-8995.3000000000175</v>
+        <v>-93477.57</v>
       </c>
       <c r="G17" s="45">
         <f>+F17/D17</f>
-        <v>-5.5414346261889617E-2</v>
+        <v>-0.57585610615543836</v>
       </c>
       <c r="H17" s="16"/>
     </row>
@@ -3080,7 +3086,7 @@
       <c r="B18" s="16"/>
       <c r="C18" s="24">
         <f>+C17/C6</f>
-        <v>0.28030547329165295</v>
+        <v>0.12586455705458666</v>
       </c>
       <c r="D18" s="24">
         <f>+D17/D6</f>
@@ -3118,7 +3124,10 @@
       <c r="B20" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <f>+'BC 20'!E116</f>
+        <v>15390.03</v>
+      </c>
       <c r="D20" s="17">
         <v>35749</v>
       </c>
@@ -3127,11 +3136,11 @@
       </c>
       <c r="F20" s="17">
         <f t="shared" ref="F20:F21" si="3">+C20-D20</f>
-        <v>-35749</v>
+        <v>-20358.97</v>
       </c>
       <c r="G20" s="45">
         <f t="shared" ref="G20:G21" si="4">+F20/D20</f>
-        <v>-1</v>
+        <v>-0.56949760832470842</v>
       </c>
       <c r="H20" s="16"/>
     </row>
@@ -3141,7 +3150,7 @@
       </c>
       <c r="C21" s="14">
         <f>+C17-C20</f>
-        <v>153332.69999999998</v>
+        <v>53460.399999999994</v>
       </c>
       <c r="D21" s="14">
         <f>+D17-D20</f>
@@ -3152,18 +3161,18 @@
       </c>
       <c r="F21" s="14">
         <f t="shared" si="3"/>
-        <v>26753.699999999983</v>
+        <v>-73118.600000000006</v>
       </c>
       <c r="G21" s="45">
         <f t="shared" si="4"/>
-        <v>0.21135970421633907</v>
+        <v>-0.5776519011842407</v>
       </c>
       <c r="H21" s="19"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" s="25">
         <f>+C21/C6</f>
-        <v>0.28030547329165295</v>
+        <v>9.7730247522942473E-2</v>
       </c>
       <c r="D22" s="25">
         <f>+D21/D6</f>
@@ -3174,6 +3183,9 @@
         <v>7.8542339219802332E-2</v>
       </c>
       <c r="G22" s="46"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3183,19 +3195,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9396899F-A8AB-4DBF-AFA4-160DCFF68FAC}">
-  <dimension ref="A2:J132"/>
+  <dimension ref="A2:J133"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.5703125" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.35">
@@ -3229,8 +3241,13 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="5">
-        <v>582857.22</v>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49">
+        <v>482984.92</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3246,9 +3263,14 @@
       <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="5">
-        <v>361086.09</v>
-      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49">
+        <v>389540.17</v>
+      </c>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -3263,9 +3285,14 @@
       <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="H9" s="5">
-        <v>361086.09</v>
-      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49">
+        <v>389540.17</v>
+      </c>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -3280,9 +3307,14 @@
       <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="G10" s="5">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49">
         <v>2679.05</v>
       </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -3297,9 +3329,14 @@
       <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="5">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49">
         <v>2679.05</v>
       </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -3314,14 +3351,14 @@
       <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="48">
         <v>2679.05</v>
       </c>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -3336,9 +3373,14 @@
       <c r="D13" s="3">
         <v>4</v>
       </c>
-      <c r="G13" s="5">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49">
         <v>183055.83</v>
       </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -3353,9 +3395,14 @@
       <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="F14" s="5">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49">
         <v>178185.83</v>
       </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3370,14 +3417,14 @@
       <c r="D15">
         <v>6</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="48">
         <v>178185.83</v>
       </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -3392,9 +3439,14 @@
       <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="F16" s="5">
+      <c r="E16" s="49"/>
+      <c r="F16" s="49">
         <v>4870</v>
       </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -3409,14 +3461,14 @@
       <c r="D17">
         <v>6</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="48">
         <v>0</v>
       </c>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -3431,14 +3483,14 @@
       <c r="D18">
         <v>6</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="48">
         <v>4870</v>
       </c>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -3453,9 +3505,14 @@
       <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="5">
-        <v>114096.31</v>
-      </c>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49">
+        <v>142550.39000000001</v>
+      </c>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -3470,9 +3527,14 @@
       <c r="D20" s="3">
         <v>5</v>
       </c>
-      <c r="F20" s="5">
-        <v>114096.31</v>
-      </c>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49">
+        <v>142550.39000000001</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -3487,14 +3549,14 @@
       <c r="D21">
         <v>6</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="48">
         <v>86113.69</v>
       </c>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -3509,14 +3571,14 @@
       <c r="D22">
         <v>6</v>
       </c>
-      <c r="E22" s="2">
-        <v>27982.62</v>
-      </c>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+      <c r="E22" s="48">
+        <v>56436.7</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -3531,14 +3593,14 @@
       <c r="D23">
         <v>6</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="48">
         <v>0</v>
       </c>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -3553,14 +3615,14 @@
       <c r="D24">
         <v>6</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="48">
         <v>0</v>
       </c>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -3575,14 +3637,14 @@
       <c r="D25">
         <v>6</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="48">
         <v>0</v>
       </c>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -3597,14 +3659,14 @@
       <c r="D26">
         <v>6</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="48">
         <v>0</v>
       </c>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -3619,9 +3681,14 @@
       <c r="D27" s="3">
         <v>4</v>
       </c>
-      <c r="G27" s="5">
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49">
         <v>61254.9</v>
       </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -3636,9 +3703,14 @@
       <c r="D28" s="3">
         <v>5</v>
       </c>
-      <c r="F28" s="5">
+      <c r="E28" s="49"/>
+      <c r="F28" s="49">
         <v>61254.9</v>
       </c>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -3653,14 +3725,14 @@
       <c r="D29">
         <v>6</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="48">
         <v>61056.94</v>
       </c>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
     </row>
     <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -3675,14 +3747,14 @@
       <c r="D30">
         <v>6</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="48">
         <v>197.96</v>
       </c>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
     </row>
     <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -3697,9 +3769,14 @@
       <c r="D31" s="3">
         <v>2</v>
       </c>
-      <c r="I31" s="5">
-        <v>221771.13</v>
-      </c>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49">
+        <v>93444.75</v>
+      </c>
+      <c r="J31" s="49"/>
     </row>
     <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
@@ -3714,9 +3791,14 @@
       <c r="D32" s="3">
         <v>3</v>
       </c>
-      <c r="H32" s="5">
-        <v>221771.13</v>
-      </c>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49">
+        <v>93444.75</v>
+      </c>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -3731,9 +3813,14 @@
       <c r="D33" s="3">
         <v>4</v>
       </c>
-      <c r="G33" s="5">
-        <v>190016.18</v>
-      </c>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49">
+        <v>77559.710000000006</v>
+      </c>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
     </row>
     <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -3748,9 +3835,14 @@
       <c r="D34" s="3">
         <v>5</v>
       </c>
-      <c r="F34" s="5">
-        <v>190016.18</v>
-      </c>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49">
+        <v>77559.710000000006</v>
+      </c>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -3765,1366 +3857,1491 @@
       <c r="D35">
         <v>6</v>
       </c>
-      <c r="E35" s="2">
-        <v>190016.18</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
+      <c r="E35" s="48">
+        <v>77559.710000000006</v>
+      </c>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
     </row>
     <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36">
         <v>43</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="3">
-        <v>4</v>
-      </c>
-      <c r="G36" s="5">
-        <v>31754.95</v>
-      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36" s="48">
+        <v>0</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49">
+        <v>15885.04</v>
+      </c>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+    </row>
+    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>46</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D38" s="3">
         <v>5</v>
       </c>
-      <c r="F37" s="5">
-        <v>31754.95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38">
-        <v>6</v>
-      </c>
-      <c r="E38" s="2">
-        <v>17354.150000000001</v>
-      </c>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49">
+        <v>15885.04</v>
+      </c>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>47</v>
       </c>
       <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39" s="48">
+        <v>1484.24</v>
+      </c>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+    </row>
+    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40" s="48">
         <v>14400.8</v>
       </c>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-    </row>
-    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>49</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="J40" s="5">
-        <v>-1213.1300000000001</v>
-      </c>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
     </row>
     <row r="41" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41" s="3">
-        <v>2</v>
-      </c>
-      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49">
         <v>-1213.1300000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D42" s="3">
-        <v>3</v>
-      </c>
-      <c r="H42" s="5">
+        <v>2</v>
+      </c>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49">
         <v>-1213.1300000000001</v>
       </c>
+      <c r="J42" s="49"/>
     </row>
     <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D43" s="3">
-        <v>4</v>
-      </c>
-      <c r="G43" s="5">
+        <v>3</v>
+      </c>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49">
         <v>-1213.1300000000001</v>
       </c>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
     </row>
     <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="3">
+        <v>4</v>
+      </c>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49">
+        <v>-1213.1300000000001</v>
+      </c>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+    </row>
+    <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>55</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D45" s="3">
         <v>5</v>
       </c>
-      <c r="F44" s="3">
+      <c r="E45" s="49"/>
+      <c r="F45" s="49">
         <v>-704.57</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>54</v>
-      </c>
-      <c r="B45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45">
-        <v>6</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D46">
         <v>6</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="48">
         <v>0</v>
       </c>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
     </row>
     <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47">
         <v>6</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="48">
         <v>0</v>
       </c>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
     </row>
     <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>60</v>
       </c>
       <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48" s="48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+    </row>
+    <row r="49" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D48">
-        <v>6</v>
-      </c>
-      <c r="E48">
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49" s="48">
         <v>-704.57</v>
       </c>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-    </row>
-    <row r="49" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>62</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+    </row>
+    <row r="50" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>64</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D50" s="3">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="E50" s="49"/>
+      <c r="F50" s="49">
         <v>-508.56</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>63</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50">
-        <v>6</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
     </row>
     <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D51">
         <v>6</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="48">
         <v>0</v>
       </c>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
     </row>
     <row r="52" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D52">
         <v>6</v>
       </c>
-      <c r="E52">
-        <v>-508.56</v>
-      </c>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
+      <c r="E52" s="48">
+        <v>0</v>
+      </c>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
     </row>
     <row r="53" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>69</v>
       </c>
       <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53" s="48">
+        <v>-508.56</v>
+      </c>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+    </row>
+    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
         <v>427</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D53">
-        <v>6</v>
-      </c>
-      <c r="E53">
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54" s="48">
         <v>0</v>
       </c>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-    </row>
-    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>71</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+    </row>
+    <row r="55" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>73</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D55" s="3">
         <v>5</v>
       </c>
-      <c r="F54" s="3">
+      <c r="E55" s="49"/>
+      <c r="F55" s="49">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>72</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+    </row>
+    <row r="56" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-      <c r="E55">
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56" s="48">
         <v>0</v>
       </c>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-    </row>
-    <row r="56" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>74</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" s="3">
-        <v>4</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
     </row>
     <row r="57" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="3">
+        <v>4</v>
+      </c>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49">
+        <v>0</v>
+      </c>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+    </row>
+    <row r="58" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>77</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D58" s="3">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
+      <c r="E58" s="49"/>
+      <c r="F58" s="49">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>76</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+    </row>
+    <row r="59" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D58">
-        <v>6</v>
-      </c>
-      <c r="E58">
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59" s="48">
         <v>0</v>
       </c>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-    </row>
-    <row r="59" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>78</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+    </row>
+    <row r="60" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>80</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D60" s="3">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="E60" s="49"/>
+      <c r="F60" s="49">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>79</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+    </row>
+    <row r="61" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D60">
-        <v>6</v>
-      </c>
-      <c r="E60">
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61" s="48">
         <v>0</v>
       </c>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-    </row>
-    <row r="61" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>81</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="3">
-        <v>4</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
     </row>
     <row r="62" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="3">
+        <v>4</v>
+      </c>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49">
+        <v>0</v>
+      </c>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+    </row>
+    <row r="63" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>84</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D63" s="3">
         <v>5</v>
       </c>
-      <c r="F62" s="3">
+      <c r="E63" s="49"/>
+      <c r="F63" s="49">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>83</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+    </row>
+    <row r="64" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>85</v>
+      </c>
+      <c r="B64" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-      <c r="E63">
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64" s="48">
         <v>0</v>
       </c>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-    </row>
-    <row r="64" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>85</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="3">
-        <v>4</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
     </row>
     <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="3">
+        <v>4</v>
+      </c>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49">
+        <v>0</v>
+      </c>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+    </row>
+    <row r="66" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>88</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D66" s="3">
         <v>5</v>
       </c>
-      <c r="F65" s="3">
+      <c r="E66" s="49"/>
+      <c r="F66" s="49">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>87</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+    </row>
+    <row r="67" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>89</v>
+      </c>
+      <c r="B67" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D66">
-        <v>6</v>
-      </c>
-      <c r="E66">
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67" s="48">
         <v>0</v>
       </c>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-    </row>
-    <row r="67" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>89</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="3">
-        <v>1</v>
-      </c>
-      <c r="J67" s="5">
-        <v>-428311.39</v>
-      </c>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
     </row>
     <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D68" s="3">
-        <v>2</v>
-      </c>
-      <c r="I68" s="5">
-        <v>-20000</v>
+        <v>1</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49">
+        <v>-428311.39</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D69" s="3">
-        <v>3</v>
-      </c>
-      <c r="H69" s="5">
+        <v>2</v>
+      </c>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49">
         <v>-20000</v>
       </c>
+      <c r="J69" s="49"/>
     </row>
     <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D70" s="3">
-        <v>4</v>
-      </c>
-      <c r="G70" s="5">
+        <v>3</v>
+      </c>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49">
         <v>-20000</v>
       </c>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
     </row>
     <row r="71" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" s="3">
+        <v>4</v>
+      </c>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49">
+        <v>-20000</v>
+      </c>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+    </row>
+    <row r="72" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>95</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D72" s="3">
         <v>5</v>
       </c>
-      <c r="F71" s="5">
+      <c r="E72" s="49"/>
+      <c r="F72" s="49">
         <v>-20000</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>94</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+    </row>
+    <row r="73" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>96</v>
+      </c>
+      <c r="B73" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D72">
-        <v>6</v>
-      </c>
-      <c r="E72" s="2">
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73" s="48">
         <v>-20000</v>
       </c>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-    </row>
-    <row r="73" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>96</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73" s="3">
-        <v>2</v>
-      </c>
-      <c r="I73" s="5">
-        <v>-346584.46</v>
-      </c>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
     </row>
     <row r="74" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D74" s="3">
-        <v>3</v>
-      </c>
-      <c r="H74" s="5">
+        <v>2</v>
+      </c>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49">
         <v>-346584.46</v>
       </c>
+      <c r="J74" s="49"/>
     </row>
     <row r="75" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D75" s="3">
-        <v>4</v>
-      </c>
-      <c r="G75" s="5">
+        <v>3</v>
+      </c>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49">
         <v>-346584.46</v>
       </c>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
     </row>
     <row r="76" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" s="3">
+        <v>4</v>
+      </c>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49">
+        <v>-346584.46</v>
+      </c>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
+    </row>
+    <row r="77" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>101</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D77" s="3">
         <v>5</v>
       </c>
-      <c r="F76" s="5">
+      <c r="E77" s="49"/>
+      <c r="F77" s="49">
         <v>-346584.46</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>100</v>
-      </c>
-      <c r="B77" t="s">
-        <v>150</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D77">
-        <v>6</v>
-      </c>
-      <c r="E77" s="2">
-        <v>-142203.51</v>
-      </c>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
     </row>
     <row r="78" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>102</v>
       </c>
       <c r="B78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78" s="48">
+        <v>-142203.51</v>
+      </c>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>104</v>
+      </c>
+      <c r="B79" t="s">
         <v>152</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D78">
-        <v>6</v>
-      </c>
-      <c r="E78" s="2">
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79" s="48">
         <v>-204380.95</v>
       </c>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>104</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D79" s="3">
-        <v>2</v>
-      </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="5">
-        <v>-61726.93</v>
-      </c>
-      <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D80" s="3">
-        <v>3</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="5">
+        <v>2</v>
+      </c>
+      <c r="E80" s="49"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49">
         <v>-61726.93</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+      <c r="J80" s="49"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D81" s="3">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="5">
+        <v>3</v>
+      </c>
+      <c r="E81" s="49"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49">
         <v>-61726.93</v>
       </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="49"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" s="3">
+        <v>4</v>
+      </c>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="49">
+        <v>-61726.93</v>
+      </c>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="49"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>109</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D83" s="3">
         <v>5</v>
       </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="5">
+      <c r="E83" s="49"/>
+      <c r="F83" s="49">
         <v>-61726.93</v>
       </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>108</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="49"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>110</v>
+      </c>
+      <c r="B84" t="s">
         <v>162</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D83">
-        <v>6</v>
-      </c>
-      <c r="E83" s="2">
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84" s="48">
         <v>-61726.93</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
-    </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="7" t="s">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="8">
-        <f>+J132</f>
-        <v>-153332.70000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B87" s="42" t="s">
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="50">
+        <f>+J133</f>
+        <v>-53460.399999999994</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B88" s="42" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>110</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1</v>
-      </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="5">
-        <v>-547020</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D91" s="3">
-        <v>2</v>
-      </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="5">
+        <v>1</v>
+      </c>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49">
         <v>-547020</v>
       </c>
-      <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D92" s="3">
-        <v>3</v>
-      </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="5">
+        <v>2</v>
+      </c>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49">
         <v>-547020</v>
       </c>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
+      <c r="J92" s="49"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D93" s="3">
-        <v>4</v>
-      </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="5">
+        <v>3</v>
+      </c>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49">
         <v>-547020</v>
       </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D94" s="3">
+        <v>4</v>
+      </c>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49">
+        <v>-547020</v>
+      </c>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>116</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D95" s="3">
         <v>5</v>
       </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="5">
+      <c r="E95" s="49"/>
+      <c r="F95" s="49">
         <v>-547020</v>
       </c>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>115</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>117</v>
+      </c>
+      <c r="B96" t="s">
         <v>176</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D95">
-        <v>6</v>
-      </c>
-      <c r="E95" s="2">
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96" s="48">
         <v>-547020</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>117</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D96" s="3">
-        <v>1</v>
-      </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="5">
-        <v>264271.33</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D97" s="3">
-        <v>2</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="5">
-        <v>264271.33</v>
-      </c>
-      <c r="J97" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E97" s="49"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49"/>
+      <c r="J97" s="49">
+        <v>392066.26</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D98" s="3">
-        <v>3</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="5">
-        <v>264271.33</v>
-      </c>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E98" s="49"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49">
+        <v>392066.26</v>
+      </c>
+      <c r="J98" s="49"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D99" s="3">
-        <v>4</v>
-      </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="5">
-        <v>264271.33</v>
-      </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49">
+        <v>392066.26</v>
+      </c>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D100" s="3">
+        <v>4</v>
+      </c>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49">
+        <v>392066.26</v>
+      </c>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>123</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D101" s="3">
         <v>5</v>
       </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="5">
-        <v>264271.33</v>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>122</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="E101" s="49"/>
+      <c r="F101" s="49">
+        <v>392066.26</v>
+      </c>
+      <c r="G101" s="49"/>
+      <c r="H101" s="49"/>
+      <c r="I101" s="49"/>
+      <c r="J101" s="49"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>124</v>
+      </c>
+      <c r="B102" t="s">
         <v>188</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D101">
-        <v>6</v>
-      </c>
-      <c r="E101" s="2">
-        <v>264271.33</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>124</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D102" s="3">
-        <v>1</v>
-      </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="5">
-        <v>128405.61</v>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102" s="48">
+        <v>392066.26</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D103" s="3">
-        <v>2</v>
-      </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="5">
-        <v>128405.61</v>
-      </c>
-      <c r="J103" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E103" s="49"/>
+      <c r="F103" s="49"/>
+      <c r="G103" s="49"/>
+      <c r="H103" s="49"/>
+      <c r="I103" s="49"/>
+      <c r="J103" s="49">
+        <v>100482.98</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D104" s="3">
-        <v>3</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="5">
-        <v>128351.97</v>
-      </c>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E104" s="49"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="49"/>
+      <c r="I104" s="49">
+        <v>100482.98</v>
+      </c>
+      <c r="J104" s="49"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D105" s="3">
-        <v>4</v>
-      </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="5">
-        <v>128351.97</v>
-      </c>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49">
+        <v>100429.34</v>
+      </c>
+      <c r="I105" s="49"/>
+      <c r="J105" s="49"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D106" s="3">
+        <v>4</v>
+      </c>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49">
+        <v>100429.34</v>
+      </c>
+      <c r="H106" s="49"/>
+      <c r="I106" s="49"/>
+      <c r="J106" s="49"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>130</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D107" s="3">
         <v>5</v>
       </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="5">
-        <v>128351.97</v>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>129</v>
-      </c>
-      <c r="B107" t="s">
-        <v>220</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D107">
-        <v>6</v>
-      </c>
-      <c r="E107">
-        <v>20.52</v>
-      </c>
+      <c r="E107" s="49"/>
+      <c r="F107" s="49">
+        <v>100429.34</v>
+      </c>
+      <c r="G107" s="49"/>
+      <c r="H107" s="49"/>
+      <c r="I107" s="49"/>
+      <c r="J107" s="49"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>131</v>
       </c>
       <c r="B108" t="s">
-        <v>432</v>
+        <v>220</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D108">
         <v>6</v>
       </c>
-      <c r="E108">
-        <v>0</v>
+      <c r="E108" s="48">
+        <v>20.52</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -5132,16 +5349,16 @@
         <v>133</v>
       </c>
       <c r="B109" t="s">
-        <v>200</v>
+        <v>432</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>201</v>
+        <v>433</v>
       </c>
       <c r="D109">
         <v>6</v>
       </c>
-      <c r="E109" s="2">
-        <v>2311.25</v>
+      <c r="E109" s="48">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -5149,16 +5366,16 @@
         <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D110">
         <v>6</v>
       </c>
-      <c r="E110">
-        <v>0</v>
+      <c r="E110" s="48">
+        <v>2842.7</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -5166,16 +5383,16 @@
         <v>137</v>
       </c>
       <c r="B111" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D111">
         <v>6</v>
       </c>
-      <c r="E111" s="2">
-        <v>78754.399999999994</v>
+      <c r="E111" s="48">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -5183,16 +5400,16 @@
         <v>139</v>
       </c>
       <c r="B112" t="s">
-        <v>434</v>
+        <v>208</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>402</v>
+        <v>209</v>
       </c>
       <c r="D112">
         <v>6</v>
       </c>
-      <c r="E112">
-        <v>22</v>
+      <c r="E112" s="48">
+        <v>78754.399999999994</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -5200,16 +5417,16 @@
         <v>141</v>
       </c>
       <c r="B113" t="s">
-        <v>210</v>
+        <v>434</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>211</v>
+        <v>402</v>
       </c>
       <c r="D113">
         <v>6</v>
       </c>
-      <c r="E113" s="2">
-        <v>3245.59</v>
+      <c r="E113" s="48">
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -5217,16 +5434,16 @@
         <v>143</v>
       </c>
       <c r="B114" t="s">
-        <v>435</v>
+        <v>210</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>436</v>
+        <v>211</v>
       </c>
       <c r="D114">
         <v>6</v>
       </c>
-      <c r="E114">
-        <v>154.1</v>
+      <c r="E114" s="48">
+        <v>3245.59</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5234,351 +5451,367 @@
         <v>145</v>
       </c>
       <c r="B115" t="s">
+        <v>435</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115" s="48">
+        <v>154.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>147</v>
+      </c>
+      <c r="B116" t="s">
         <v>212</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D115">
-        <v>6</v>
-      </c>
-      <c r="E115" s="2">
-        <v>43844.11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
-        <v>147</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D116" s="3">
-        <v>3</v>
-      </c>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3">
-        <v>53.64</v>
-      </c>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
+      <c r="D116">
+        <v>6</v>
+      </c>
+      <c r="E116" s="48">
+        <v>15390.03</v>
+      </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D117" s="3">
-        <v>4</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3">
+        <v>3</v>
+      </c>
+      <c r="E117" s="49"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="49"/>
+      <c r="H117" s="49">
         <v>53.64</v>
       </c>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D118" s="3">
+        <v>4</v>
+      </c>
+      <c r="E118" s="49"/>
+      <c r="F118" s="49"/>
+      <c r="G118" s="49">
+        <v>53.64</v>
+      </c>
+      <c r="H118" s="49"/>
+      <c r="I118" s="49"/>
+      <c r="J118" s="49"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>151</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D119" s="3">
         <v>5</v>
       </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3">
+      <c r="E119" s="49"/>
+      <c r="F119" s="49">
         <v>53.64</v>
       </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>150</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="G119" s="49"/>
+      <c r="H119" s="49"/>
+      <c r="I119" s="49"/>
+      <c r="J119" s="49"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>152</v>
+      </c>
+      <c r="B120" t="s">
         <v>220</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D119">
-        <v>6</v>
-      </c>
-      <c r="E119">
+      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120" s="48">
         <v>53.64</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
-        <v>152</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D120" s="3">
-        <v>1</v>
-      </c>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="5">
-        <v>1010.36</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D121" s="3">
-        <v>2</v>
-      </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3">
-        <v>-950.14</v>
-      </c>
-      <c r="J121" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E121" s="49"/>
+      <c r="F121" s="49"/>
+      <c r="G121" s="49"/>
+      <c r="H121" s="49"/>
+      <c r="I121" s="49"/>
+      <c r="J121" s="49">
+        <v>1010.36</v>
+      </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D122" s="3">
-        <v>3</v>
-      </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3">
+        <v>2</v>
+      </c>
+      <c r="E122" s="49"/>
+      <c r="F122" s="49"/>
+      <c r="G122" s="49"/>
+      <c r="H122" s="49"/>
+      <c r="I122" s="49">
         <v>-950.14</v>
       </c>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
+      <c r="J122" s="49"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="D123" s="3">
-        <v>4</v>
-      </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3">
+        <v>3</v>
+      </c>
+      <c r="E123" s="49"/>
+      <c r="F123" s="49"/>
+      <c r="G123" s="49"/>
+      <c r="H123" s="49">
         <v>-950.14</v>
       </c>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
+      <c r="I123" s="49"/>
+      <c r="J123" s="49"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D124" s="3">
+        <v>4</v>
+      </c>
+      <c r="E124" s="49"/>
+      <c r="F124" s="49"/>
+      <c r="G124" s="49">
+        <v>-950.14</v>
+      </c>
+      <c r="H124" s="49"/>
+      <c r="I124" s="49"/>
+      <c r="J124" s="49"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>158</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D125" s="3">
         <v>5</v>
       </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3">
+      <c r="E125" s="49"/>
+      <c r="F125" s="49">
         <v>-950.14</v>
       </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>157</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="G125" s="49"/>
+      <c r="H125" s="49"/>
+      <c r="I125" s="49"/>
+      <c r="J125" s="49"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>159</v>
+      </c>
+      <c r="B126" t="s">
         <v>445</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D125">
-        <v>6</v>
-      </c>
-      <c r="E125">
+      <c r="D126">
+        <v>6</v>
+      </c>
+      <c r="E126" s="48">
         <v>-950.14</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
-        <v>159</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D126" s="3">
-        <v>2</v>
-      </c>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="5">
-        <v>1960.5</v>
-      </c>
-      <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D127" s="3">
-        <v>3</v>
-      </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="5">
+        <v>2</v>
+      </c>
+      <c r="E127" s="49"/>
+      <c r="F127" s="49"/>
+      <c r="G127" s="49"/>
+      <c r="H127" s="49"/>
+      <c r="I127" s="49">
         <v>1960.5</v>
       </c>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
+      <c r="J127" s="49"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D128" s="3">
-        <v>4</v>
-      </c>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="5">
+        <v>3</v>
+      </c>
+      <c r="E128" s="49"/>
+      <c r="F128" s="49"/>
+      <c r="G128" s="49"/>
+      <c r="H128" s="49">
         <v>1960.5</v>
       </c>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
+      <c r="I128" s="49"/>
+      <c r="J128" s="49"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D129" s="3">
+        <v>4</v>
+      </c>
+      <c r="E129" s="49"/>
+      <c r="F129" s="49"/>
+      <c r="G129" s="49">
+        <v>1960.5</v>
+      </c>
+      <c r="H129" s="49"/>
+      <c r="I129" s="49"/>
+      <c r="J129" s="49"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>164</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D130" s="3">
         <v>5</v>
       </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="5">
+      <c r="E130" s="49"/>
+      <c r="F130" s="49">
         <v>1960.5</v>
       </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>163</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="G130" s="49"/>
+      <c r="H130" s="49"/>
+      <c r="I130" s="49"/>
+      <c r="J130" s="49"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>165</v>
+      </c>
+      <c r="B131" t="s">
         <v>454</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D130">
-        <v>6</v>
-      </c>
-      <c r="E130" s="2">
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131" s="48">
         <v>1960.5</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C131" s="1"/>
-      <c r="E131" s="2"/>
-    </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B132" s="7" t="s">
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="8">
-        <f>SUM(J90:J131)</f>
-        <v>-153332.70000000001</v>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="50"/>
+      <c r="H133" s="50"/>
+      <c r="I133" s="50"/>
+      <c r="J133" s="50">
+        <f>SUM(J91:J132)</f>
+        <v>-53460.399999999994</v>
       </c>
     </row>
   </sheetData>

--- a/FASE III - Informe/9100 Evaluacion de evidencia/9110 Revision analitica final/9111 Revision analitica final.xlsx
+++ b/FASE III - Informe/9100 Evaluacion de evidencia/9110 Revision analitica final/9111 Revision analitica final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\TELCODATA\FASE III - Informe\9100 Evaluacion de evidencia\9110 Revision analitica final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B7708B-BC99-4B82-AAF9-A9F933409033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB7A939-66C0-49C9-8E86-7AF5FEA434B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BG" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="476">
   <si>
     <t xml:space="preserve"> ACTIVOS</t>
   </si>
@@ -780,9 +780,6 @@
     <t>TOTAL PASIVOS Y PATRIMONIO</t>
   </si>
   <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
     <t>ESTADO DE RESULTADOS</t>
   </si>
   <si>
@@ -795,9 +792,6 @@
     <t>Gastos de administracion y ventas</t>
   </si>
   <si>
-    <t>Gastos financieros</t>
-  </si>
-  <si>
     <t>Utilidad antes de IR</t>
   </si>
   <si>
@@ -1441,6 +1435,33 @@
   </si>
   <si>
     <t>Utilidad operacional</t>
+  </si>
+  <si>
+    <t>Explicacion de principales variaciones</t>
+  </si>
+  <si>
+    <t>Los saldos de cuentas por cobrar comerciales corresponden a la deuda de Telconet, compania relacionada que representa el unico cliente de la empresa</t>
+  </si>
+  <si>
+    <t>Al cierre del ejercicio 2020 no hay saldos en cuentas por pagar a proveedores</t>
+  </si>
+  <si>
+    <t>La cuenta por pagar a Telconet al 2019 fue cancelada en el presete ejercicio</t>
+  </si>
+  <si>
+    <t>Los saldos de inventarios corresponden a mercaderia que al final de cada ejercicio se encuentra en transito</t>
+  </si>
+  <si>
+    <t>Variacion que se corresponde con los resultados de cada ejercicio</t>
+  </si>
+  <si>
+    <t>Las ventas del ejercicio se mantienen en comparacion con el anio anterior. A pesar de la pandemia de covid19 el mercado de telecomunicaciones en el cual opera Telconet (unico cliente) no se ha visto afectado por esta</t>
+  </si>
+  <si>
+    <t>Variacion que se corresponde con la utilidad del ejercicio</t>
+  </si>
+  <si>
+    <t>En el 2019 se incurrieron en gastos de movilizacion por US$30 mil los cuales no se dieron en el presente ejercicio. En adicion se incurrieron en menores de gastos de honorarios por servicios profesionales</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1680,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1702,6 +1722,9 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2045,12 +2068,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,7 +2082,7 @@
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.7109375" customWidth="1"/>
+    <col min="8" max="8" width="93.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2094,10 +2117,10 @@
         <v>231</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>248</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2113,7 +2136,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C7" s="17">
         <f>+'BC 20'!F11</f>
@@ -2130,7 +2153,7 @@
         <f>+C7-D7</f>
         <v>-992.69999999999982</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <f>+F7/D7</f>
         <v>-0.27036154422278202</v>
       </c>
@@ -2138,18 +2161,18 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C9" s="17">
         <f>+'BC 20'!F14</f>
@@ -2165,15 +2188,17 @@
         <f t="shared" ref="F9:F15" si="0">+C9-D9</f>
         <v>-11798.170000000013</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <f t="shared" ref="G9:G15" si="1">+F9/D9</f>
         <v>-6.2100861125147448E-2</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="51" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C10" s="17">
         <f>+'BC 20'!F16+'BC 20'!E29</f>
@@ -2191,7 +2216,7 @@
         <f t="shared" si="0"/>
         <v>-78720.169999999984</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <f t="shared" si="1"/>
         <v>-0.54422221086892086</v>
       </c>
@@ -2199,7 +2224,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C11" s="17">
         <f>+'BC 20'!E30</f>
@@ -2210,16 +2235,15 @@
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="26"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C12" s="17">
-        <f>+'BC 20'!F20</f>
-        <v>142550.39000000001</v>
+        <v>140884</v>
       </c>
       <c r="D12" s="17">
         <v>137808</v>
@@ -2229,17 +2253,17 @@
       </c>
       <c r="F12" s="17">
         <f t="shared" si="0"/>
-        <v>4742.390000000014</v>
-      </c>
-      <c r="G12" s="26">
+        <v>3076</v>
+      </c>
+      <c r="G12" s="25">
         <f t="shared" si="1"/>
-        <v>3.4413023917334362E-2</v>
+        <v>2.2320910251944735E-2</v>
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C13" s="17">
         <f>+'BC 20'!H32</f>
@@ -2256,11 +2280,13 @@
         <f t="shared" si="0"/>
         <v>11730.740000000005</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="25">
         <f t="shared" si="1"/>
         <v>0.14355849137742727</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="51" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
@@ -2268,7 +2294,7 @@
       </c>
       <c r="C14" s="14">
         <f>SUM(C7:C13)</f>
-        <v>482984.92</v>
+        <v>481318.52999999997</v>
       </c>
       <c r="D14" s="14">
         <f>SUM(D7:D13)</f>
@@ -2280,11 +2306,11 @@
       </c>
       <c r="F14" s="14">
         <f t="shared" si="0"/>
-        <v>-75037.950000000012</v>
-      </c>
-      <c r="G14" s="28">
+        <v>-76704.340000000026</v>
+      </c>
+      <c r="G14" s="27">
         <f t="shared" si="1"/>
-        <v>-0.13447110151596478</v>
+        <v>-0.13745734113012253</v>
       </c>
       <c r="H14" s="16"/>
     </row>
@@ -2294,7 +2320,7 @@
       </c>
       <c r="C15" s="14">
         <f>+C14</f>
-        <v>482984.92</v>
+        <v>481318.52999999997</v>
       </c>
       <c r="D15" s="14">
         <f>+D14</f>
@@ -2306,11 +2332,11 @@
       </c>
       <c r="F15" s="14">
         <f t="shared" si="0"/>
-        <v>-75037.950000000012</v>
-      </c>
-      <c r="G15" s="28">
+        <v>-76704.340000000026</v>
+      </c>
+      <c r="G15" s="27">
         <f t="shared" si="1"/>
-        <v>-0.13447110151596478</v>
+        <v>-0.13745734113012253</v>
       </c>
       <c r="H15" s="16"/>
     </row>
@@ -2347,7 +2373,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -2355,12 +2381,12 @@
         <v>57028</v>
       </c>
       <c r="F19" s="17"/>
-      <c r="G19" s="26"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C20" s="17">
         <f>-'BC 20'!F58</f>
@@ -2376,15 +2402,17 @@
         <f t="shared" ref="F20:F24" si="2">+C20-D20</f>
         <v>-23852</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <f t="shared" ref="G20:G24" si="3">+F20/D20</f>
         <v>-1</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="16" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C21" s="17">
         <v>0</v>
@@ -2399,26 +2427,28 @@
         <f t="shared" si="2"/>
         <v>-104454</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="H21" s="16"/>
+      <c r="H21" s="16" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C23" s="17">
         <f>-'BC 20'!G44</f>
@@ -2434,7 +2464,7 @@
         <f t="shared" si="2"/>
         <v>-192.86999999999989</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <f t="shared" si="3"/>
         <v>-0.13717638691322895</v>
       </c>
@@ -2460,7 +2490,7 @@
         <f t="shared" si="2"/>
         <v>-128498.87</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <f t="shared" si="3"/>
         <v>-0.9906475114098926</v>
       </c>
@@ -2505,7 +2535,7 @@
         <f t="shared" ref="F27:F33" si="4">+C27-D27</f>
         <v>0</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="25">
         <f t="shared" ref="G27:G33" si="5">+F27/D27</f>
         <v>0</v>
       </c>
@@ -2530,7 +2560,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2555,7 +2585,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2566,8 +2596,7 @@
         <v>244</v>
       </c>
       <c r="C30" s="17">
-        <f>-'BC 20'!J86</f>
-        <v>53460.399999999994</v>
+        <v>53238</v>
       </c>
       <c r="D30" s="17">
         <v>126579</v>
@@ -2577,21 +2606,23 @@
       </c>
       <c r="F30" s="17">
         <f t="shared" si="4"/>
-        <v>-73118.600000000006</v>
-      </c>
-      <c r="G30" s="26">
+        <v>-73341</v>
+      </c>
+      <c r="G30" s="25">
         <f t="shared" si="5"/>
-        <v>-0.5776519011842407</v>
-      </c>
-      <c r="H30" s="16"/>
+        <v>-0.57940890669068323</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>245</v>
       </c>
       <c r="C31" s="17">
-        <f>-'BC 20'!I80</f>
-        <v>61726.93</v>
+        <f>-'BC 20'!I80-1444</f>
+        <v>60282.93</v>
       </c>
       <c r="D31" s="17">
         <f>-'BC19'!F86</f>
@@ -2603,11 +2634,11 @@
       </c>
       <c r="F31" s="17">
         <f t="shared" si="4"/>
-        <v>126579.35</v>
-      </c>
-      <c r="G31" s="26">
+        <v>125135.35</v>
+      </c>
+      <c r="G31" s="25">
         <f t="shared" si="5"/>
-        <v>-1.9518061161017586</v>
+        <v>-1.9295401775292274</v>
       </c>
       <c r="H31" s="16"/>
     </row>
@@ -2617,7 +2648,7 @@
       </c>
       <c r="C32" s="14">
         <f>SUM(C27:C31)</f>
-        <v>481771.79</v>
+        <v>480105.39</v>
       </c>
       <c r="D32" s="14">
         <f>SUM(D27:D31)</f>
@@ -2629,11 +2660,11 @@
       </c>
       <c r="F32" s="14">
         <f t="shared" si="4"/>
-        <v>53460.749999999942</v>
-      </c>
-      <c r="G32" s="28">
+        <v>51794.349999999977</v>
+      </c>
+      <c r="G32" s="27">
         <f t="shared" si="5"/>
-        <v>0.12481758583668527</v>
+        <v>0.12092695532667094</v>
       </c>
       <c r="H32" s="16"/>
     </row>
@@ -2643,7 +2674,7 @@
       </c>
       <c r="C33" s="18">
         <f>+C24+C32</f>
-        <v>482984.92</v>
+        <v>481318.52</v>
       </c>
       <c r="D33" s="18">
         <f>+D24+D32</f>
@@ -2655,18 +2686,18 @@
       </c>
       <c r="F33" s="14">
         <f t="shared" si="4"/>
-        <v>-75038.120000000054</v>
-      </c>
-      <c r="G33" s="27">
+        <v>-76704.520000000019</v>
+      </c>
+      <c r="G33" s="26">
         <f t="shared" si="5"/>
-        <v>-0.13447136519667727</v>
+        <v>-0.13745762182149326</v>
       </c>
       <c r="H33" s="19"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="10">
         <f>+C33-C15</f>
-        <v>0</v>
+        <v>-9.9999999511055648E-3</v>
       </c>
       <c r="D34" s="10">
         <f>+D33-D15</f>
@@ -2677,22 +2708,22 @@
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="C35" s="30">
+      <c r="B35" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="29">
         <f>+C14/C24</f>
-        <v>398.13121429690136</v>
-      </c>
-      <c r="D35" s="30">
+        <v>396.7575857492601</v>
+      </c>
+      <c r="D35" s="29">
         <f>+D14/D24</f>
         <v>4.3020142315283092</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="29">
         <f>+E14/E24</f>
         <v>9.2558080362822315E-2</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="29">
         <f>+D35-E35</f>
         <v>4.2094561511654867</v>
       </c>
@@ -2700,21 +2731,21 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="C36" s="31">
+        <v>257</v>
+      </c>
+      <c r="C36" s="30">
         <f>+C24/C32</f>
-        <v>2.518059432246957E-3</v>
-      </c>
-      <c r="D36" s="31">
+        <v>2.5267993762786126E-3</v>
+      </c>
+      <c r="D36" s="30">
         <f>+D24/D32</f>
         <v>0.30284533408244624</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="30">
         <f>+E24/E32</f>
         <v>19.303749685151061</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="30">
         <f t="shared" ref="F36:F37" si="6">+D36-E36</f>
         <v>-19.000904351068616</v>
       </c>
@@ -2722,21 +2753,21 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="C37" s="32">
+        <v>258</v>
+      </c>
+      <c r="C37" s="31">
         <f>+C19/C33</f>
         <v>0</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="31">
         <f>+D19/D33</f>
         <v>0</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="31">
         <f>+E19/E33</f>
         <v>9.3087318248512851E-3</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="31">
         <f t="shared" si="6"/>
         <v>-9.3087318248512851E-3</v>
       </c>
@@ -2751,7 +2782,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C39" s="10" t="e">
         <f>360/(+ER!B6/((BG!D9+BG!C9)/2))</f>
@@ -2783,10 +2814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,8 +2828,8 @@
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="43" customWidth="1"/>
+    <col min="8" max="8" width="98.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2818,7 +2849,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" s="12">
         <v>2020</v>
@@ -2833,15 +2864,15 @@
         <v>231</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C6" s="17">
         <f>-'BC 20'!J91</f>
@@ -2857,15 +2888,17 @@
         <f>+C6-D6</f>
         <v>-18340</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="44">
         <f>+F6/D6</f>
         <v>-3.2439507570397624E-2</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="51" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" s="17">
         <f>'BC 20'!E102</f>
@@ -2881,7 +2914,7 @@
         <f t="shared" ref="F7:F8" si="0">+C7-D7</f>
         <v>137860.26</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <f t="shared" ref="G7:G8" si="1">+F7/D7</f>
         <v>0.54231709715742349</v>
       </c>
@@ -2889,7 +2922,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="20">
         <f>+C6-C7</f>
@@ -2907,7 +2940,7 @@
         <f t="shared" si="0"/>
         <v>-156200.26</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <f t="shared" si="1"/>
         <v>-0.50200305957821534</v>
       </c>
@@ -2915,20 +2948,20 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <f>+C8/C6</f>
         <v>0.28326887499542974</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <f>+D8/D6</f>
         <v>0.55036436960520729</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <f>+E8/E6</f>
         <v>0.24189407915900077</v>
       </c>
       <c r="F9" s="17"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2937,19 +2970,18 @@
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17">
-        <f t="shared" ref="F10:F19" si="2">+D10-E10</f>
+        <f t="shared" ref="F10:F18" si="2">+D10-E10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" s="17">
-        <f>'BC 20'!F107-'BC 20'!E116-'BC 20'!E115</f>
-        <v>84885.209999999992</v>
+        <v>85094</v>
       </c>
       <c r="D11" s="17">
         <v>148706</v>
@@ -2960,232 +2992,213 @@
       </c>
       <c r="F11" s="17">
         <f>+C11-D11</f>
-        <v>-63820.790000000008</v>
-      </c>
-      <c r="G11" s="45">
+        <v>-63612</v>
+      </c>
+      <c r="G11" s="44">
         <f>+F11/D11</f>
-        <v>-0.42917427676085707</v>
-      </c>
-      <c r="H11" s="16"/>
+        <v>-0.42777023119443736</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <f>+C11/C6</f>
-        <v>0.1551775255018098</v>
-      </c>
-      <c r="D12" s="24">
+        <v>0.15555921172900442</v>
+      </c>
+      <c r="D12" s="23">
         <f>+D11/D6</f>
         <v>0.26302886656289798</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <f>+E11/E6</f>
         <v>0.13515822772739236</v>
       </c>
       <c r="F12" s="17"/>
-      <c r="G12" s="45"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="C13" s="47">
+        <v>466</v>
+      </c>
+      <c r="C13" s="46">
         <f>+C8-C11</f>
-        <v>70068.53</v>
-      </c>
-      <c r="D13" s="47">
+        <v>69859.739999999991</v>
+      </c>
+      <c r="D13" s="46">
         <f>+D8-D11</f>
         <v>162448</v>
       </c>
-      <c r="E13" s="43"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="20">
         <f>+C13-D13</f>
-        <v>-92379.47</v>
-      </c>
-      <c r="G13" s="45">
+        <v>-92588.260000000009</v>
+      </c>
+      <c r="G13" s="44">
         <f>+F13/D13</f>
-        <v>-0.5686710208805279</v>
+        <v>-0.56995629370629375</v>
       </c>
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="45"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>253</v>
+        <v>465</v>
       </c>
       <c r="C15" s="17">
-        <f>-'BC 20'!E115-'BC 20'!E120</f>
-        <v>-207.74</v>
+        <f>-'BC 20'!E126-'BC 20'!E131</f>
+        <v>-1010.36</v>
       </c>
       <c r="D15" s="17">
         <v>-120</v>
       </c>
-      <c r="E15" s="17">
-        <v>2502</v>
-      </c>
-      <c r="F15" s="17">
-        <f>+C15-D15</f>
-        <v>-87.740000000000009</v>
-      </c>
-      <c r="G15" s="45">
-        <f>+F15/D15</f>
-        <v>0.73116666666666674</v>
-      </c>
-      <c r="H15" s="23"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="C16" s="17">
-        <f>-'BC 20'!E126-'BC 20'!E131</f>
-        <v>-1010.36</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="45"/>
+        <v>252</v>
+      </c>
+      <c r="C16" s="20">
+        <f>SUM(C13:C15)</f>
+        <v>68849.37999999999</v>
+      </c>
+      <c r="D16" s="20">
+        <f>SUM(D13:D15)</f>
+        <v>162328</v>
+      </c>
+      <c r="E16" s="20">
+        <f>+E20+E19</f>
+        <v>81445</v>
+      </c>
+      <c r="F16" s="20">
+        <f>+C16-D16</f>
+        <v>-93478.62000000001</v>
+      </c>
+      <c r="G16" s="44">
+        <f>+F16/D16</f>
+        <v>-0.57586257454043666</v>
+      </c>
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="C17" s="20">
-        <f>SUM(C13:C16)</f>
-        <v>68850.429999999993</v>
-      </c>
-      <c r="D17" s="20">
-        <f>SUM(D13:D16)</f>
-        <v>162328</v>
-      </c>
-      <c r="E17" s="20">
-        <f>+E21+E20</f>
-        <v>81445</v>
-      </c>
-      <c r="F17" s="20">
-        <f>+C17-D17</f>
-        <v>-93477.57</v>
-      </c>
-      <c r="G17" s="45">
-        <f>+F17/D17</f>
-        <v>-0.57585610615543836</v>
-      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="23">
+        <f>+C16/C6</f>
+        <v>0.125862637563526</v>
+      </c>
+      <c r="D17" s="23">
+        <f>+D16/D6</f>
+        <v>0.28712324890335361</v>
+      </c>
+      <c r="E17" s="23">
+        <f>+E16/E6</f>
+        <v>0.10355464066431615</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="24">
-        <f>+C17/C6</f>
-        <v>0.12586455705458666</v>
-      </c>
-      <c r="D18" s="24">
-        <f>+D17/D6</f>
-        <v>0.28712324890335361</v>
-      </c>
-      <c r="E18" s="24">
-        <f>+E17/E6</f>
-        <v>0.10355464066431615</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="45"/>
+      <c r="B18" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="44"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="17">
-        <v>0</v>
+        <v>15612</v>
       </c>
       <c r="D19" s="17">
-        <v>0</v>
+        <v>35749</v>
       </c>
       <c r="E19" s="17">
-        <v>0</v>
+        <v>19672</v>
       </c>
       <c r="F19" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="16"/>
+        <f t="shared" ref="F19:F20" si="3">+C19-D19</f>
+        <v>-20137</v>
+      </c>
+      <c r="G19" s="44">
+        <f t="shared" ref="G19:G20" si="4">+F19/D19</f>
+        <v>-0.56328848359394668</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="17">
-        <f>+'BC 20'!E116</f>
-        <v>15390.03</v>
-      </c>
-      <c r="D20" s="17">
-        <v>35749</v>
-      </c>
-      <c r="E20" s="17">
-        <v>19672</v>
-      </c>
-      <c r="F20" s="17">
-        <f t="shared" ref="F20:F21" si="3">+C20-D20</f>
-        <v>-20358.97</v>
-      </c>
-      <c r="G20" s="45">
-        <f t="shared" ref="G20:G21" si="4">+F20/D20</f>
-        <v>-0.56949760832470842</v>
-      </c>
-      <c r="H20" s="16"/>
+      <c r="B20" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="14">
+        <f>+C16-C19</f>
+        <v>53237.37999999999</v>
+      </c>
+      <c r="D20" s="14">
+        <f>+D16-D19</f>
+        <v>126579</v>
+      </c>
+      <c r="E20" s="14">
+        <v>61773</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="3"/>
+        <v>-73341.62000000001</v>
+      </c>
+      <c r="G20" s="44">
+        <f t="shared" si="4"/>
+        <v>-0.5794138048175449</v>
+      </c>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" s="14">
-        <f>+C17-C20</f>
-        <v>53460.399999999994</v>
-      </c>
-      <c r="D21" s="14">
-        <f>+D17-D20</f>
-        <v>126579</v>
-      </c>
-      <c r="E21" s="14">
-        <v>61773</v>
-      </c>
-      <c r="F21" s="14">
-        <f t="shared" si="3"/>
-        <v>-73118.600000000006</v>
-      </c>
-      <c r="G21" s="45">
-        <f t="shared" si="4"/>
-        <v>-0.5776519011842407</v>
-      </c>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="25">
-        <f>+C21/C6</f>
-        <v>9.7730247522942473E-2</v>
-      </c>
-      <c r="D22" s="25">
-        <f>+D21/D6</f>
+      <c r="C21" s="24">
+        <f>+C20/C6</f>
+        <v>9.732254762165915E-2</v>
+      </c>
+      <c r="D21" s="24">
+        <f>+D20/D6</f>
         <v>0.22389097212395642</v>
       </c>
-      <c r="E22" s="25">
-        <f>+E21/E6</f>
+      <c r="E21" s="24">
+        <f>+E20/E6</f>
         <v>7.8542339219802332E-2</v>
       </c>
-      <c r="G22" s="46"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="51"/>
+      <c r="G21" s="45"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3207,11 +3220,11 @@
     <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="11.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.5703125" style="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3220,12 +3233,12 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3241,12 +3254,12 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48">
         <v>482984.92</v>
       </c>
     </row>
@@ -3263,14 +3276,14 @@
       <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49">
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48">
         <v>389540.17</v>
       </c>
-      <c r="J8" s="49"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -3285,14 +3298,14 @@
       <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49">
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48">
         <v>389540.17</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -3307,14 +3320,14 @@
       <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49">
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48">
         <v>2679.05</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -3329,14 +3342,14 @@
       <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49">
+      <c r="E11" s="48"/>
+      <c r="F11" s="48">
         <v>2679.05</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -3351,14 +3364,14 @@
       <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="47">
         <v>2679.05</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -3373,14 +3386,14 @@
       <c r="D13" s="3">
         <v>4</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49">
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48">
         <v>183055.83</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -3395,14 +3408,14 @@
       <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49">
+      <c r="E14" s="48"/>
+      <c r="F14" s="48">
         <v>178185.83</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3417,14 +3430,14 @@
       <c r="D15">
         <v>6</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="47">
         <v>178185.83</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -3439,14 +3452,14 @@
       <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49">
+      <c r="E16" s="48"/>
+      <c r="F16" s="48">
         <v>4870</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -3461,14 +3474,14 @@
       <c r="D17">
         <v>6</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="47">
         <v>0</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -3483,14 +3496,14 @@
       <c r="D18">
         <v>6</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="47">
         <v>4870</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -3505,14 +3518,14 @@
       <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49">
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48">
         <v>142550.39000000001</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -3527,14 +3540,14 @@
       <c r="D20" s="3">
         <v>5</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49">
+      <c r="E20" s="48"/>
+      <c r="F20" s="48">
         <v>142550.39000000001</v>
       </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -3549,14 +3562,14 @@
       <c r="D21">
         <v>6</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="47">
         <v>86113.69</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -3571,14 +3584,14 @@
       <c r="D22">
         <v>6</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="47">
         <v>56436.7</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -3593,14 +3606,14 @@
       <c r="D23">
         <v>6</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="47">
         <v>0</v>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -3615,14 +3628,14 @@
       <c r="D24">
         <v>6</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="47">
         <v>0</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -3637,36 +3650,36 @@
       <c r="D25">
         <v>6</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="47">
         <v>0</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D26">
         <v>6</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="47">
         <v>0</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -3681,14 +3694,14 @@
       <c r="D27" s="3">
         <v>4</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49">
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48">
         <v>61254.9</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -3703,14 +3716,14 @@
       <c r="D28" s="3">
         <v>5</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49">
+      <c r="E28" s="48"/>
+      <c r="F28" s="48">
         <v>61254.9</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -3725,14 +3738,14 @@
       <c r="D29">
         <v>6</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="47">
         <v>61056.94</v>
       </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -3747,14 +3760,14 @@
       <c r="D30">
         <v>6</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="47">
         <v>197.96</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -3769,14 +3782,14 @@
       <c r="D31" s="3">
         <v>2</v>
       </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49">
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48">
         <v>93444.75</v>
       </c>
-      <c r="J31" s="49"/>
+      <c r="J31" s="48"/>
     </row>
     <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
@@ -3791,14 +3804,14 @@
       <c r="D32" s="3">
         <v>3</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49">
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48">
         <v>93444.75</v>
       </c>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -3813,14 +3826,14 @@
       <c r="D33" s="3">
         <v>4</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49">
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48">
         <v>77559.710000000006</v>
       </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
     </row>
     <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -3835,14 +3848,14 @@
       <c r="D34" s="3">
         <v>5</v>
       </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49">
+      <c r="E34" s="48"/>
+      <c r="F34" s="48">
         <v>77559.710000000006</v>
       </c>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -3857,14 +3870,14 @@
       <c r="D35">
         <v>6</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="47">
         <v>77559.710000000006</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
     </row>
     <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -3879,14 +3892,14 @@
       <c r="D36">
         <v>6</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="47">
         <v>0</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
@@ -3901,14 +3914,14 @@
       <c r="D37" s="3">
         <v>4</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49">
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48">
         <v>15885.04</v>
       </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
@@ -3923,14 +3936,14 @@
       <c r="D38" s="3">
         <v>5</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49">
+      <c r="E38" s="48"/>
+      <c r="F38" s="48">
         <v>15885.04</v>
       </c>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -3945,14 +3958,14 @@
       <c r="D39">
         <v>6</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="47">
         <v>1484.24</v>
       </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
     </row>
     <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -3967,14 +3980,14 @@
       <c r="D40">
         <v>6</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="47">
         <v>14400.8</v>
       </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
     </row>
     <row r="41" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
@@ -3989,12 +4002,12 @@
       <c r="D41" s="3">
         <v>1</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49">
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48">
         <v>-1213.1300000000001</v>
       </c>
     </row>
@@ -4011,14 +4024,14 @@
       <c r="D42" s="3">
         <v>2</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49">
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48">
         <v>-1213.1300000000001</v>
       </c>
-      <c r="J42" s="49"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
@@ -4033,14 +4046,14 @@
       <c r="D43" s="3">
         <v>3</v>
       </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49">
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48">
         <v>-1213.1300000000001</v>
       </c>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
     </row>
     <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
@@ -4055,14 +4068,14 @@
       <c r="D44" s="3">
         <v>4</v>
       </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49">
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48">
         <v>-1213.1300000000001</v>
       </c>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
@@ -4077,14 +4090,14 @@
       <c r="D45" s="3">
         <v>5</v>
       </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49">
+      <c r="E45" s="48"/>
+      <c r="F45" s="48">
         <v>-704.57</v>
       </c>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -4099,14 +4112,14 @@
       <c r="D46">
         <v>6</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="47">
         <v>0</v>
       </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
     </row>
     <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -4121,14 +4134,14 @@
       <c r="D47">
         <v>6</v>
       </c>
-      <c r="E47" s="48">
+      <c r="E47" s="47">
         <v>0</v>
       </c>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
     </row>
     <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -4143,14 +4156,14 @@
       <c r="D48">
         <v>6</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="47">
         <v>0</v>
       </c>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
     </row>
     <row r="49" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -4165,14 +4178,14 @@
       <c r="D49">
         <v>6</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="47">
         <v>-704.57</v>
       </c>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
     </row>
     <row r="50" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
@@ -4187,14 +4200,14 @@
       <c r="D50" s="3">
         <v>5</v>
       </c>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49">
+      <c r="E50" s="48"/>
+      <c r="F50" s="48">
         <v>-508.56</v>
       </c>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
     </row>
     <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -4209,14 +4222,14 @@
       <c r="D51">
         <v>6</v>
       </c>
-      <c r="E51" s="48">
+      <c r="E51" s="47">
         <v>0</v>
       </c>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
     </row>
     <row r="52" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -4231,14 +4244,14 @@
       <c r="D52">
         <v>6</v>
       </c>
-      <c r="E52" s="48">
+      <c r="E52" s="47">
         <v>0</v>
       </c>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
     </row>
     <row r="53" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -4253,36 +4266,36 @@
       <c r="D53">
         <v>6</v>
       </c>
-      <c r="E53" s="48">
+      <c r="E53" s="47">
         <v>-508.56</v>
       </c>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
     </row>
     <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D54">
         <v>6</v>
       </c>
-      <c r="E54" s="48">
+      <c r="E54" s="47">
         <v>0</v>
       </c>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
     </row>
     <row r="55" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
@@ -4297,14 +4310,14 @@
       <c r="D55" s="3">
         <v>5</v>
       </c>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49">
+      <c r="E55" s="48"/>
+      <c r="F55" s="48">
         <v>0</v>
       </c>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
     </row>
     <row r="56" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -4319,14 +4332,14 @@
       <c r="D56">
         <v>6</v>
       </c>
-      <c r="E56" s="48">
+      <c r="E56" s="47">
         <v>0</v>
       </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
     </row>
     <row r="57" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
@@ -4341,14 +4354,14 @@
       <c r="D57" s="3">
         <v>4</v>
       </c>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49">
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48">
         <v>0</v>
       </c>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
     </row>
     <row r="58" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -4363,14 +4376,14 @@
       <c r="D58" s="3">
         <v>5</v>
       </c>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49">
+      <c r="E58" s="48"/>
+      <c r="F58" s="48">
         <v>0</v>
       </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
     </row>
     <row r="59" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -4385,14 +4398,14 @@
       <c r="D59">
         <v>6</v>
       </c>
-      <c r="E59" s="48">
+      <c r="E59" s="47">
         <v>0</v>
       </c>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
     </row>
     <row r="60" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
@@ -4407,14 +4420,14 @@
       <c r="D60" s="3">
         <v>5</v>
       </c>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49">
+      <c r="E60" s="48"/>
+      <c r="F60" s="48">
         <v>0</v>
       </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
     </row>
     <row r="61" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -4429,14 +4442,14 @@
       <c r="D61">
         <v>6</v>
       </c>
-      <c r="E61" s="48">
+      <c r="E61" s="47">
         <v>0</v>
       </c>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
     </row>
     <row r="62" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
@@ -4451,14 +4464,14 @@
       <c r="D62" s="3">
         <v>4</v>
       </c>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49">
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48">
         <v>0</v>
       </c>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
     </row>
     <row r="63" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
@@ -4473,14 +4486,14 @@
       <c r="D63" s="3">
         <v>5</v>
       </c>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49">
+      <c r="E63" s="48"/>
+      <c r="F63" s="48">
         <v>0</v>
       </c>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
     </row>
     <row r="64" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -4495,14 +4508,14 @@
       <c r="D64">
         <v>6</v>
       </c>
-      <c r="E64" s="48">
+      <c r="E64" s="47">
         <v>0</v>
       </c>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
     </row>
     <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
@@ -4517,14 +4530,14 @@
       <c r="D65" s="3">
         <v>4</v>
       </c>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49">
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48">
         <v>0</v>
       </c>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
     </row>
     <row r="66" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
@@ -4539,14 +4552,14 @@
       <c r="D66" s="3">
         <v>5</v>
       </c>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49">
+      <c r="E66" s="48"/>
+      <c r="F66" s="48">
         <v>0</v>
       </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
     </row>
     <row r="67" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -4561,14 +4574,14 @@
       <c r="D67">
         <v>6</v>
       </c>
-      <c r="E67" s="48">
+      <c r="E67" s="47">
         <v>0</v>
       </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
     </row>
     <row r="68" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
@@ -4583,12 +4596,12 @@
       <c r="D68" s="3">
         <v>1</v>
       </c>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49">
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48">
         <v>-428311.39</v>
       </c>
     </row>
@@ -4605,14 +4618,14 @@
       <c r="D69" s="3">
         <v>2</v>
       </c>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49">
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48">
         <v>-20000</v>
       </c>
-      <c r="J69" s="49"/>
+      <c r="J69" s="48"/>
     </row>
     <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
@@ -4627,14 +4640,14 @@
       <c r="D70" s="3">
         <v>3</v>
       </c>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49">
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48">
         <v>-20000</v>
       </c>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
     </row>
     <row r="71" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
@@ -4649,14 +4662,14 @@
       <c r="D71" s="3">
         <v>4</v>
       </c>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49">
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48">
         <v>-20000</v>
       </c>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="48"/>
     </row>
     <row r="72" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
@@ -4671,14 +4684,14 @@
       <c r="D72" s="3">
         <v>5</v>
       </c>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49">
+      <c r="E72" s="48"/>
+      <c r="F72" s="48">
         <v>-20000</v>
       </c>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
     </row>
     <row r="73" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -4693,14 +4706,14 @@
       <c r="D73">
         <v>6</v>
       </c>
-      <c r="E73" s="48">
+      <c r="E73" s="47">
         <v>-20000</v>
       </c>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
     </row>
     <row r="74" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
@@ -4715,14 +4728,14 @@
       <c r="D74" s="3">
         <v>2</v>
       </c>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49">
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48">
         <v>-346584.46</v>
       </c>
-      <c r="J74" s="49"/>
+      <c r="J74" s="48"/>
     </row>
     <row r="75" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
@@ -4737,14 +4750,14 @@
       <c r="D75" s="3">
         <v>3</v>
       </c>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49">
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48">
         <v>-346584.46</v>
       </c>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
     </row>
     <row r="76" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
@@ -4759,14 +4772,14 @@
       <c r="D76" s="3">
         <v>4</v>
       </c>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49">
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48">
         <v>-346584.46</v>
       </c>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="49"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
     </row>
     <row r="77" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
@@ -4781,14 +4794,14 @@
       <c r="D77" s="3">
         <v>5</v>
       </c>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49">
+      <c r="E77" s="48"/>
+      <c r="F77" s="48">
         <v>-346584.46</v>
       </c>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="49"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="48"/>
     </row>
     <row r="78" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -4803,14 +4816,14 @@
       <c r="D78">
         <v>6</v>
       </c>
-      <c r="E78" s="48">
+      <c r="E78" s="47">
         <v>-142203.51</v>
       </c>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -4825,7 +4838,7 @@
       <c r="D79">
         <v>6</v>
       </c>
-      <c r="E79" s="48">
+      <c r="E79" s="47">
         <v>-204380.95</v>
       </c>
     </row>
@@ -4842,14 +4855,14 @@
       <c r="D80" s="3">
         <v>2</v>
       </c>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49">
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48">
         <v>-61726.93</v>
       </c>
-      <c r="J80" s="49"/>
+      <c r="J80" s="48"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
@@ -4864,14 +4877,14 @@
       <c r="D81" s="3">
         <v>3</v>
       </c>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49">
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48">
         <v>-61726.93</v>
       </c>
-      <c r="I81" s="49"/>
-      <c r="J81" s="49"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
@@ -4886,14 +4899,14 @@
       <c r="D82" s="3">
         <v>4</v>
       </c>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49">
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48">
         <v>-61726.93</v>
       </c>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="48"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
@@ -4908,14 +4921,14 @@
       <c r="D83" s="3">
         <v>5</v>
       </c>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49">
+      <c r="E83" s="48"/>
+      <c r="F83" s="48">
         <v>-61726.93</v>
       </c>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="49"/>
-      <c r="J83" s="49"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="48"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -4930,7 +4943,7 @@
       <c r="D84">
         <v>6</v>
       </c>
-      <c r="E84" s="48">
+      <c r="E84" s="47">
         <v>-61726.93</v>
       </c>
     </row>
@@ -4939,28 +4952,28 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50">
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49">
         <f>+J133</f>
         <v>-53460.399999999994</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B88" s="42" t="s">
-        <v>430</v>
+      <c r="B88" s="41" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4976,12 +4989,12 @@
       <c r="D91" s="3">
         <v>1</v>
       </c>
-      <c r="E91" s="49"/>
-      <c r="F91" s="49"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="49">
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48">
         <v>-547020</v>
       </c>
     </row>
@@ -4998,14 +5011,14 @@
       <c r="D92" s="3">
         <v>2</v>
       </c>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49">
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48">
         <v>-547020</v>
       </c>
-      <c r="J92" s="49"/>
+      <c r="J92" s="48"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
@@ -5020,14 +5033,14 @@
       <c r="D93" s="3">
         <v>3</v>
       </c>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49">
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48">
         <v>-547020</v>
       </c>
-      <c r="I93" s="49"/>
-      <c r="J93" s="49"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="48"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
@@ -5042,14 +5055,14 @@
       <c r="D94" s="3">
         <v>4</v>
       </c>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49">
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48">
         <v>-547020</v>
       </c>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="49"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="48"/>
+      <c r="J94" s="48"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
@@ -5064,14 +5077,14 @@
       <c r="D95" s="3">
         <v>5</v>
       </c>
-      <c r="E95" s="49"/>
-      <c r="F95" s="49">
+      <c r="E95" s="48"/>
+      <c r="F95" s="48">
         <v>-547020</v>
       </c>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49"/>
-      <c r="J95" s="49"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="48"/>
+      <c r="J95" s="48"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -5086,7 +5099,7 @@
       <c r="D96">
         <v>6</v>
       </c>
-      <c r="E96" s="48">
+      <c r="E96" s="47">
         <v>-547020</v>
       </c>
     </row>
@@ -5103,12 +5116,12 @@
       <c r="D97" s="3">
         <v>1</v>
       </c>
-      <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49"/>
-      <c r="J97" s="49">
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="48"/>
+      <c r="J97" s="48">
         <v>392066.26</v>
       </c>
     </row>
@@ -5125,14 +5138,14 @@
       <c r="D98" s="3">
         <v>2</v>
       </c>
-      <c r="E98" s="49"/>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49"/>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49">
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="48">
         <v>392066.26</v>
       </c>
-      <c r="J98" s="49"/>
+      <c r="J98" s="48"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
@@ -5147,14 +5160,14 @@
       <c r="D99" s="3">
         <v>3</v>
       </c>
-      <c r="E99" s="49"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49">
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48">
         <v>392066.26</v>
       </c>
-      <c r="I99" s="49"/>
-      <c r="J99" s="49"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="48"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
@@ -5169,14 +5182,14 @@
       <c r="D100" s="3">
         <v>4</v>
       </c>
-      <c r="E100" s="49"/>
-      <c r="F100" s="49"/>
-      <c r="G100" s="49">
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48">
         <v>392066.26</v>
       </c>
-      <c r="H100" s="49"/>
-      <c r="I100" s="49"/>
-      <c r="J100" s="49"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="48"/>
+      <c r="J100" s="48"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
@@ -5191,14 +5204,14 @@
       <c r="D101" s="3">
         <v>5</v>
       </c>
-      <c r="E101" s="49"/>
-      <c r="F101" s="49">
+      <c r="E101" s="48"/>
+      <c r="F101" s="48">
         <v>392066.26</v>
       </c>
-      <c r="G101" s="49"/>
-      <c r="H101" s="49"/>
-      <c r="I101" s="49"/>
-      <c r="J101" s="49"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="48"/>
+      <c r="J101" s="48"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -5213,7 +5226,7 @@
       <c r="D102">
         <v>6</v>
       </c>
-      <c r="E102" s="48">
+      <c r="E102" s="47">
         <v>392066.26</v>
       </c>
     </row>
@@ -5230,12 +5243,12 @@
       <c r="D103" s="3">
         <v>1</v>
       </c>
-      <c r="E103" s="49"/>
-      <c r="F103" s="49"/>
-      <c r="G103" s="49"/>
-      <c r="H103" s="49"/>
-      <c r="I103" s="49"/>
-      <c r="J103" s="49">
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="48"/>
+      <c r="J103" s="48">
         <v>100482.98</v>
       </c>
     </row>
@@ -5252,14 +5265,14 @@
       <c r="D104" s="3">
         <v>2</v>
       </c>
-      <c r="E104" s="49"/>
-      <c r="F104" s="49"/>
-      <c r="G104" s="49"/>
-      <c r="H104" s="49"/>
-      <c r="I104" s="49">
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48">
         <v>100482.98</v>
       </c>
-      <c r="J104" s="49"/>
+      <c r="J104" s="48"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
@@ -5274,14 +5287,14 @@
       <c r="D105" s="3">
         <v>3</v>
       </c>
-      <c r="E105" s="49"/>
-      <c r="F105" s="49"/>
-      <c r="G105" s="49"/>
-      <c r="H105" s="49">
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48">
         <v>100429.34</v>
       </c>
-      <c r="I105" s="49"/>
-      <c r="J105" s="49"/>
+      <c r="I105" s="48"/>
+      <c r="J105" s="48"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
@@ -5296,14 +5309,14 @@
       <c r="D106" s="3">
         <v>4</v>
       </c>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="49">
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48">
         <v>100429.34</v>
       </c>
-      <c r="H106" s="49"/>
-      <c r="I106" s="49"/>
-      <c r="J106" s="49"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="48"/>
+      <c r="J106" s="48"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
@@ -5318,14 +5331,14 @@
       <c r="D107" s="3">
         <v>5</v>
       </c>
-      <c r="E107" s="49"/>
-      <c r="F107" s="49">
+      <c r="E107" s="48"/>
+      <c r="F107" s="48">
         <v>100429.34</v>
       </c>
-      <c r="G107" s="49"/>
-      <c r="H107" s="49"/>
-      <c r="I107" s="49"/>
-      <c r="J107" s="49"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="48"/>
+      <c r="J107" s="48"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
@@ -5335,12 +5348,12 @@
         <v>220</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D108">
         <v>6</v>
       </c>
-      <c r="E108" s="48">
+      <c r="E108" s="47">
         <v>20.52</v>
       </c>
     </row>
@@ -5349,15 +5362,15 @@
         <v>133</v>
       </c>
       <c r="B109" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D109">
         <v>6</v>
       </c>
-      <c r="E109" s="48">
+      <c r="E109" s="47">
         <v>0</v>
       </c>
     </row>
@@ -5374,7 +5387,7 @@
       <c r="D110">
         <v>6</v>
       </c>
-      <c r="E110" s="48">
+      <c r="E110" s="47">
         <v>2842.7</v>
       </c>
     </row>
@@ -5391,7 +5404,7 @@
       <c r="D111">
         <v>6</v>
       </c>
-      <c r="E111" s="48">
+      <c r="E111" s="47">
         <v>0</v>
       </c>
     </row>
@@ -5408,7 +5421,7 @@
       <c r="D112">
         <v>6</v>
       </c>
-      <c r="E112" s="48">
+      <c r="E112" s="47">
         <v>78754.399999999994</v>
       </c>
     </row>
@@ -5417,15 +5430,15 @@
         <v>141</v>
       </c>
       <c r="B113" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D113">
         <v>6</v>
       </c>
-      <c r="E113" s="48">
+      <c r="E113" s="47">
         <v>22</v>
       </c>
     </row>
@@ -5442,7 +5455,7 @@
       <c r="D114">
         <v>6</v>
       </c>
-      <c r="E114" s="48">
+      <c r="E114" s="47">
         <v>3245.59</v>
       </c>
     </row>
@@ -5451,15 +5464,15 @@
         <v>145</v>
       </c>
       <c r="B115" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D115">
         <v>6</v>
       </c>
-      <c r="E115" s="48">
+      <c r="E115" s="47">
         <v>154.1</v>
       </c>
     </row>
@@ -5476,7 +5489,7 @@
       <c r="D116">
         <v>6</v>
       </c>
-      <c r="E116" s="48">
+      <c r="E116" s="47">
         <v>15390.03</v>
       </c>
     </row>
@@ -5493,14 +5506,14 @@
       <c r="D117" s="3">
         <v>3</v>
       </c>
-      <c r="E117" s="49"/>
-      <c r="F117" s="49"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49">
+      <c r="E117" s="48"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="48">
         <v>53.64</v>
       </c>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
+      <c r="I117" s="48"/>
+      <c r="J117" s="48"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
@@ -5515,14 +5528,14 @@
       <c r="D118" s="3">
         <v>4</v>
       </c>
-      <c r="E118" s="49"/>
-      <c r="F118" s="49"/>
-      <c r="G118" s="49">
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48">
         <v>53.64</v>
       </c>
-      <c r="H118" s="49"/>
-      <c r="I118" s="49"/>
-      <c r="J118" s="49"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="48"/>
+      <c r="J118" s="48"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
@@ -5537,14 +5550,14 @@
       <c r="D119" s="3">
         <v>5</v>
       </c>
-      <c r="E119" s="49"/>
-      <c r="F119" s="49">
+      <c r="E119" s="48"/>
+      <c r="F119" s="48">
         <v>53.64</v>
       </c>
-      <c r="G119" s="49"/>
-      <c r="H119" s="49"/>
-      <c r="I119" s="49"/>
-      <c r="J119" s="49"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="48"/>
+      <c r="I119" s="48"/>
+      <c r="J119" s="48"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -5559,7 +5572,7 @@
       <c r="D120">
         <v>6</v>
       </c>
-      <c r="E120" s="48">
+      <c r="E120" s="47">
         <v>53.64</v>
       </c>
     </row>
@@ -5568,20 +5581,20 @@
         <v>154</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D121" s="3">
         <v>1</v>
       </c>
-      <c r="E121" s="49"/>
-      <c r="F121" s="49"/>
-      <c r="G121" s="49"/>
-      <c r="H121" s="49"/>
-      <c r="I121" s="49"/>
-      <c r="J121" s="49">
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="48"/>
+      <c r="J121" s="48">
         <v>1010.36</v>
       </c>
     </row>
@@ -5590,103 +5603,103 @@
         <v>155</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D122" s="3">
         <v>2</v>
       </c>
-      <c r="E122" s="49"/>
-      <c r="F122" s="49"/>
-      <c r="G122" s="49"/>
-      <c r="H122" s="49"/>
-      <c r="I122" s="49">
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48">
         <v>-950.14</v>
       </c>
-      <c r="J122" s="49"/>
+      <c r="J122" s="48"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>156</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D123" s="3">
         <v>3</v>
       </c>
-      <c r="E123" s="49"/>
-      <c r="F123" s="49"/>
-      <c r="G123" s="49"/>
-      <c r="H123" s="49">
+      <c r="E123" s="48"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48">
         <v>-950.14</v>
       </c>
-      <c r="I123" s="49"/>
-      <c r="J123" s="49"/>
+      <c r="I123" s="48"/>
+      <c r="J123" s="48"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>157</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D124" s="3">
         <v>4</v>
       </c>
-      <c r="E124" s="49"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="49">
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48">
         <v>-950.14</v>
       </c>
-      <c r="H124" s="49"/>
-      <c r="I124" s="49"/>
-      <c r="J124" s="49"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>158</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D125" s="3">
         <v>5</v>
       </c>
-      <c r="E125" s="49"/>
-      <c r="F125" s="49">
+      <c r="E125" s="48"/>
+      <c r="F125" s="48">
         <v>-950.14</v>
       </c>
-      <c r="G125" s="49"/>
-      <c r="H125" s="49"/>
-      <c r="I125" s="49"/>
-      <c r="J125" s="49"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="48"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>159</v>
       </c>
       <c r="B126" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D126">
         <v>6</v>
       </c>
-      <c r="E126" s="48">
+      <c r="E126" s="47">
         <v>-950.14</v>
       </c>
     </row>
@@ -5695,103 +5708,103 @@
         <v>161</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D127" s="3">
         <v>2</v>
       </c>
-      <c r="E127" s="49"/>
-      <c r="F127" s="49"/>
-      <c r="G127" s="49"/>
-      <c r="H127" s="49"/>
-      <c r="I127" s="49">
+      <c r="E127" s="48"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="48"/>
+      <c r="I127" s="48">
         <v>1960.5</v>
       </c>
-      <c r="J127" s="49"/>
+      <c r="J127" s="48"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>162</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D128" s="3">
         <v>3</v>
       </c>
-      <c r="E128" s="49"/>
-      <c r="F128" s="49"/>
-      <c r="G128" s="49"/>
-      <c r="H128" s="49">
+      <c r="E128" s="48"/>
+      <c r="F128" s="48"/>
+      <c r="G128" s="48"/>
+      <c r="H128" s="48">
         <v>1960.5</v>
       </c>
-      <c r="I128" s="49"/>
-      <c r="J128" s="49"/>
+      <c r="I128" s="48"/>
+      <c r="J128" s="48"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>163</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D129" s="3">
         <v>4</v>
       </c>
-      <c r="E129" s="49"/>
-      <c r="F129" s="49"/>
-      <c r="G129" s="49">
+      <c r="E129" s="48"/>
+      <c r="F129" s="48"/>
+      <c r="G129" s="48">
         <v>1960.5</v>
       </c>
-      <c r="H129" s="49"/>
-      <c r="I129" s="49"/>
-      <c r="J129" s="49"/>
+      <c r="H129" s="48"/>
+      <c r="I129" s="48"/>
+      <c r="J129" s="48"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>164</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D130" s="3">
         <v>5</v>
       </c>
-      <c r="E130" s="49"/>
-      <c r="F130" s="49">
+      <c r="E130" s="48"/>
+      <c r="F130" s="48">
         <v>1960.5</v>
       </c>
-      <c r="G130" s="49"/>
-      <c r="H130" s="49"/>
-      <c r="I130" s="49"/>
-      <c r="J130" s="49"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="48"/>
+      <c r="I130" s="48"/>
+      <c r="J130" s="48"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>165</v>
       </c>
       <c r="B131" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D131">
         <v>6</v>
       </c>
-      <c r="E131" s="48">
+      <c r="E131" s="47">
         <v>1960.5</v>
       </c>
     </row>
@@ -5800,16 +5813,16 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
-      <c r="E133" s="50"/>
-      <c r="F133" s="50"/>
-      <c r="G133" s="50"/>
-      <c r="H133" s="50"/>
-      <c r="I133" s="50"/>
-      <c r="J133" s="50">
+      <c r="E133" s="49"/>
+      <c r="F133" s="49"/>
+      <c r="G133" s="49"/>
+      <c r="H133" s="49"/>
+      <c r="I133" s="49"/>
+      <c r="J133" s="49">
         <f>SUM(J91:J132)</f>
         <v>-53460.399999999994</v>
       </c>
@@ -8177,1527 +8190,1527 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="34"/>
+    <col min="1" max="1" width="16.42578125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="33"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="B3" s="35" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="35">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="36">
+        <v>6126291.1699999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
-        <v>1</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="37">
-        <v>6126291.1699999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="C5" s="36">
+        <v>339278.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B6" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="36">
+        <v>339278.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="37">
-        <v>339278.36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="C7" s="36">
+        <v>51822.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="37">
-        <v>339278.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="C8" s="36">
+        <v>51822.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="36">
+        <v>199.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="36">
+        <v>51622.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="36">
+        <v>72370.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="36">
+        <v>72370.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="36">
+        <v>72370.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="36">
+        <v>153179.07999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="36">
+        <v>153179.07999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="36">
+        <v>81134.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="36">
+        <v>72044.740000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C25" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="36">
+        <v>61156.94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="36">
+        <v>61156.94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" s="36">
+        <v>61156.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="36">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30" s="36">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C31" s="36">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C32" s="36">
+        <v>199832.32000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C33" s="36">
+        <v>199832.32000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C34" s="36">
+        <v>199832.32000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35" s="36">
+        <v>199832.32000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C36" s="36">
+        <v>155556.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" s="36">
+        <v>44276.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C38" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="C39" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" s="36">
+        <v>5587180.4900000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="C42" s="36">
+        <v>5587180.4900000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="C43" s="36">
+        <v>5587180.4900000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44" s="36">
+        <v>5587180.4900000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="C45" s="36">
+        <v>5587180.4900000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="35">
+        <v>2</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="36">
+        <v>-5824559.1299999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" s="36">
+        <v>-5824559.1299999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" s="36">
+        <v>-5824559.1299999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="C49" s="36">
+        <v>-1162.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C50" s="36">
+        <v>-624.79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C51" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C52" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C53" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C54" s="36">
+        <v>-624.79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="C55" s="36">
+        <v>-537.38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C56" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C57" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="C58" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C59" s="36">
+        <v>-537.38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C60" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C61" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" s="36">
+        <v>-149771.10999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="C63" s="36">
+        <v>-3851.11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="C64" s="36">
+        <v>-3851.11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C65" s="36">
+        <v>-145920</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C66" s="36">
+        <v>-145920</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="C67" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="C68" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="C69" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C70" s="36">
+        <v>-57027.839999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C71" s="36">
+        <v>-57027.839999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="C72" s="36">
+        <v>-57027.839999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C73" s="36">
+        <v>-5616598.0099999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C74" s="36">
+        <v>-18610.169999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="C75" s="36">
+        <v>-18610.169999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="C76" s="36">
+        <v>-5597987.8399999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C77" s="36">
+        <v>-5597987.8399999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="35">
+        <v>3</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C78" s="36">
+        <v>-239959.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C79" s="36">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C80" s="36">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C81" s="36">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="C82" s="36">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="C83" s="36">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C84" s="36">
+        <v>-346584.46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C85" s="36">
+        <v>-346584.46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C86" s="36">
+        <v>-346584.46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C87" s="36">
+        <v>-346584.46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C88" s="36">
+        <v>-142203.51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C89" s="36">
+        <v>-204380.95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C90" s="36">
+        <v>126625.06</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C91" s="36">
+        <v>126625.06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C92" s="36">
+        <v>126625.06</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C93" s="36">
+        <v>126625.06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="C94" s="36">
+        <v>126625.06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="C95" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="35">
+        <v>4</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="C96" s="36">
+        <v>-773977</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C97" s="36">
+        <v>-773977</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="C98" s="36">
+        <v>-773977</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="C99" s="36">
+        <v>-773977</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C100" s="36">
+        <v>-773977</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="C101" s="36">
+        <v>-773977</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="35">
+        <v>5</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="C102" s="36">
+        <v>596244.65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C103" s="36">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="C104" s="36">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="C105" s="36">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="C106" s="36">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="C107" s="36">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="C108" s="36">
+        <v>581744.65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="C109" s="36">
+        <v>581744.65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="C110" s="36">
+        <v>581744.65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="C111" s="36">
+        <v>581744.65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="C112" s="36">
+        <v>581744.65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="35">
+        <v>6</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="C113" s="36">
+        <v>128475.32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="C114" s="36">
+        <v>128475.32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C115" s="36">
+        <v>121430.27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="C116" s="36">
+        <v>121430.27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="C117" s="36">
+        <v>121430.27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="B118" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C118" s="36">
+        <v>1394.26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C119" s="36">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="C120" s="36">
+        <v>2696.04</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="C121" s="36">
+        <v>11750.04</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="C122" s="36">
+        <v>361.08</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="C123" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C124" s="36">
+        <v>71369.69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="B125" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="C125" s="36">
+        <v>292.60000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B126" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="C126" s="36">
+        <v>5432.95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="C127" s="36">
+        <v>27284.61</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="B128" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="C128" s="36">
+        <v>7045.05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B129" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="C129" s="36">
+        <v>7045.05</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B130" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="C130" s="36">
+        <v>7045.05</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B131" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="C131" s="36">
+        <v>4542.84</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B132" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="C132" s="36">
+        <v>624.38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="C133" s="36">
+        <v>1877.83</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="35">
         <v>7</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="37">
-        <v>51822.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" s="37">
-        <v>51822.17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="C9" s="37">
-        <v>199.81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="C10" s="37">
-        <v>51622.36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="C11" s="37">
-        <v>72370.17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="C12" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="C13" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="C14" s="37">
-        <v>72370.17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="C15" s="37">
-        <v>72370.17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="C16" s="37">
-        <v>153179.07999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" s="37">
-        <v>153179.07999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="C18" s="37">
-        <v>81134.34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" s="37">
-        <v>72044.740000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="C20" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="C21" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="C22" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="C24" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="C25" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="C26" s="37">
-        <v>61156.94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="C27" s="37">
-        <v>61156.94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="C28" s="37">
-        <v>61156.94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="C29" s="37">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="C30" s="37">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="C31" s="37">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="C32" s="37">
-        <v>199832.32000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="C33" s="37">
-        <v>199832.32000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="C34" s="37">
-        <v>199832.32000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="C35" s="37">
-        <v>199832.32000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="C36" s="37">
-        <v>155556.31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="C37" s="37">
-        <v>44276.01</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C38" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="C39" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="C40" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="C41" s="37">
-        <v>5587180.4900000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="C42" s="37">
-        <v>5587180.4900000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="C43" s="37">
-        <v>5587180.4900000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="C44" s="37">
-        <v>5587180.4900000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="C45" s="37">
-        <v>5587180.4900000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="36">
-        <v>2</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="C46" s="37">
-        <v>-5824559.1299999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="C47" s="37">
-        <v>-5824559.1299999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="C48" s="37">
-        <v>-5824559.1299999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="C49" s="37">
-        <v>-1162.17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="C50" s="37">
-        <v>-624.79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="C51" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="C52" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="C53" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="C54" s="37">
-        <v>-624.79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="C55" s="37">
-        <v>-537.38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="C56" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="C57" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="C58" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="C59" s="37">
-        <v>-537.38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="C60" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="C61" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="C62" s="37">
-        <v>-149771.10999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="C63" s="37">
-        <v>-3851.11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="C64" s="37">
-        <v>-3851.11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="C65" s="37">
-        <v>-145920</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="C66" s="37">
-        <v>-145920</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="C67" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="C68" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="C69" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="C70" s="37">
-        <v>-57027.839999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="C71" s="37">
-        <v>-57027.839999999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="C72" s="37">
-        <v>-57027.839999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="C73" s="37">
-        <v>-5616598.0099999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="B74" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="C74" s="37">
-        <v>-18610.169999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="C75" s="37">
-        <v>-18610.169999999998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="C76" s="37">
-        <v>-5597987.8399999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B77" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="C77" s="37">
-        <v>-5597987.8399999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="36">
-        <v>3</v>
-      </c>
-      <c r="B78" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="C78" s="37">
-        <v>-239959.4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="B79" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="C79" s="37">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="B80" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="C80" s="37">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B81" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="C81" s="37">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="B82" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="C82" s="37">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="C83" s="37">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="B84" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="C84" s="37">
-        <v>-346584.46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="B85" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="C85" s="37">
-        <v>-346584.46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="B86" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="C86" s="37">
-        <v>-346584.46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B87" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="C87" s="37">
-        <v>-346584.46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B88" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="C88" s="37">
-        <v>-142203.51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="B89" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="C89" s="37">
-        <v>-204380.95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="B90" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="C90" s="37">
-        <v>126625.06</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="B91" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="C91" s="37">
-        <v>126625.06</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="C92" s="37">
-        <v>126625.06</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B93" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="C93" s="37">
-        <v>126625.06</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B94" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="C94" s="37">
-        <v>126625.06</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="C95" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="36">
-        <v>4</v>
-      </c>
-      <c r="B96" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C96" s="37">
-        <v>-773977</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="B97" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="C97" s="37">
-        <v>-773977</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="B98" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="C98" s="37">
-        <v>-773977</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="B99" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="C99" s="37">
-        <v>-773977</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="B100" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="C100" s="37">
-        <v>-773977</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="B101" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="C101" s="37">
-        <v>-773977</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="36">
-        <v>5</v>
-      </c>
-      <c r="B102" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="C102" s="37">
-        <v>596244.65</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="B103" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="C103" s="37">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="B104" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="C104" s="37">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="B105" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="C105" s="37">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="B106" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="C106" s="37">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="B107" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="C107" s="37">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="B108" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="C108" s="37">
-        <v>581744.65</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="39" t="s">
-        <v>388</v>
-      </c>
-      <c r="B109" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="C109" s="37">
-        <v>581744.65</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="B110" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="C110" s="37">
-        <v>581744.65</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="B111" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="C111" s="37">
-        <v>581744.65</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B112" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="C112" s="37">
-        <v>581744.65</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="36">
-        <v>6</v>
-      </c>
-      <c r="B113" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="C113" s="37">
-        <v>128475.32</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="B114" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="C114" s="37">
-        <v>128475.32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="39" t="s">
-        <v>392</v>
-      </c>
-      <c r="B115" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="C115" s="37">
-        <v>121430.27</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B116" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="C116" s="37">
-        <v>121430.27</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="B117" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="C117" s="37">
-        <v>121430.27</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="B118" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="C118" s="37">
-        <v>1394.26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="B119" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="C119" s="37">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="B120" s="34" t="s">
-        <v>397</v>
-      </c>
-      <c r="C120" s="37">
-        <v>2696.04</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="B121" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="C121" s="37">
-        <v>11750.04</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="B122" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="C122" s="37">
-        <v>361.08</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="B123" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="C123" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="B124" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="C124" s="37">
-        <v>71369.69</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B125" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="C125" s="37">
-        <v>292.60000000000002</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="B126" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="C126" s="37">
-        <v>5432.95</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="B127" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="C127" s="37">
-        <v>27284.61</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="B128" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="C128" s="37">
-        <v>7045.05</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="B129" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="C129" s="37">
-        <v>7045.05</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="B130" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="C130" s="37">
-        <v>7045.05</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="B131" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="C131" s="37">
-        <v>4542.84</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="B132" s="34" t="s">
+      <c r="B134" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="C132" s="37">
-        <v>624.38</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="B133" s="34" t="s">
+      <c r="C134" s="36">
+        <v>-12515.61</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="37" t="s">
         <v>410</v>
       </c>
-      <c r="C133" s="37">
-        <v>1877.83</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="36">
-        <v>7</v>
-      </c>
-      <c r="B134" s="34" t="s">
+      <c r="B135" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="C134" s="37">
+      <c r="C135" s="36">
         <v>-12515.61</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="38" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="B135" s="34" t="s">
+      <c r="B136" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="C135" s="37">
+      <c r="C136" s="36">
         <v>-12515.61</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="39" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="B136" s="34" t="s">
+      <c r="B137" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="C137" s="36">
+        <v>-12515.61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="C136" s="37">
+      <c r="B138" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="C138" s="36">
         <v>-12515.61</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="B137" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="C137" s="37">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="B139" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="C139" s="36">
         <v>-12515.61</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="B138" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="C138" s="37">
-        <v>-12515.61</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="36" t="s">
-        <v>419</v>
-      </c>
-      <c r="B139" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C139" s="37">
-        <v>-12515.61</v>
-      </c>
-    </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="36"/>
-      <c r="B140" s="40"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FASE III - Informe/9100 Evaluacion de evidencia/9110 Revision analitica final/9111 Revision analitica final.xlsx
+++ b/FASE III - Informe/9100 Evaluacion de evidencia/9110 Revision analitica final/9111 Revision analitica final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\TELCODATA\FASE III - Informe\9100 Evaluacion de evidencia\9110 Revision analitica final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB7A939-66C0-49C9-8E86-7AF5FEA434B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E204A6AE-C579-463A-B7CD-2782788008DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BG" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="484">
   <si>
     <t xml:space="preserve"> ACTIVOS</t>
   </si>
@@ -1440,28 +1440,52 @@
     <t>Explicacion de principales variaciones</t>
   </si>
   <si>
-    <t>Los saldos de cuentas por cobrar comerciales corresponden a la deuda de Telconet, compania relacionada que representa el unico cliente de la empresa</t>
-  </si>
-  <si>
-    <t>Al cierre del ejercicio 2020 no hay saldos en cuentas por pagar a proveedores</t>
-  </si>
-  <si>
-    <t>La cuenta por pagar a Telconet al 2019 fue cancelada en el presete ejercicio</t>
-  </si>
-  <si>
-    <t>Los saldos de inventarios corresponden a mercaderia que al final de cada ejercicio se encuentra en transito</t>
-  </si>
-  <si>
-    <t>Variacion que se corresponde con los resultados de cada ejercicio</t>
-  </si>
-  <si>
-    <t>Las ventas del ejercicio se mantienen en comparacion con el anio anterior. A pesar de la pandemia de covid19 el mercado de telecomunicaciones en el cual opera Telconet (unico cliente) no se ha visto afectado por esta</t>
-  </si>
-  <si>
     <t>Variacion que se corresponde con la utilidad del ejercicio</t>
   </si>
   <si>
-    <t>En el 2019 se incurrieron en gastos de movilizacion por US$30 mil los cuales no se dieron en el presente ejercicio. En adicion se incurrieron en menores de gastos de honorarios por servicios profesionales</t>
+    <t>Al cierre del ejercicio 2020 no hay saldos en cuentas por pagar a proveedores y las cuentas por pagar que existian al 2019 fueron canceladas durante el ejercicio, motivo por el cual se explica esta variacion</t>
+  </si>
+  <si>
+    <t>Los saldos de cuentas por cobrar comerciales corresponden a la deuda de Telconet, compania relacionada que representa el unico cliente de la empresa y los dias de cartera se mantienen en 120 dias en el 2020 y 2019. La variacion es del 6% lo cual se presenta dentro de un rango razonable.</t>
+  </si>
+  <si>
+    <t>Variacion no significativa</t>
+  </si>
+  <si>
+    <t>Al final del 2020 Telcodata liquido el saldo de cuentas por pagar por US$104 mil que habia en el 2019, motivo por el cual esta cuenta por cobrar se redujo en el mismo importe. En adicion, hubieron nuevas transacciones por US$25 mil, todo lo cual explica esta disminucion de -US$78 mil (-US$104k+ US$25k)</t>
+  </si>
+  <si>
+    <t>Dias de inventarios</t>
+  </si>
+  <si>
+    <t>Los saldos de inventarios corresponden a mercaderia que al final de cada ejercicio se encuentra en transito. Los dias de inventarios en relacion con el costo de ventas de cada ejercicio se han reducido en 30 dias (116 dias en 2019 y 86 dias en 2020), motivo por el cual se explica esta variacion</t>
+  </si>
+  <si>
+    <t>La cuenta por pagar a Telconet al 2019 fue cancelada en el presente ejercicio, razon por la cual se reducen las cuentas por pagar en US$104 mil</t>
+  </si>
+  <si>
+    <t>Variacion que se corresponde con los resultados de cada ejercicio por US$53 mil, neto de transferencia del resultado del 2019 a resultados acumulados por US$126 mil (-US$126 mil + US$53 mil = -US$73 mil)</t>
+  </si>
+  <si>
+    <t>Incremento de US$125 mil que se eplica principalmente por la transferencia del resultado del ejercicio 2019 a la cuenta de resultados acumulados.</t>
+  </si>
+  <si>
+    <t>Las ventas del ejercicio se mantienen en comparacion con el anio anterior. A pesar de la pandemia de covid19 el mercado de telecomunicaciones en el cual opera Telconet (unico cliente) no se ha visto afectado por esta.                                                               En adicion, las ventas del 2019 incluyen ingresos por servicios prestados por US$218 mil, los cuales no se repitieron en el 2020 y que fueron compensandos por un mayor numero de unidades (baterias) vendidas.</t>
+  </si>
+  <si>
+    <t>Los margenes de venta son fijados de comun acuerdo con Telconet (unico cliente y parte relacionada) motivo por lo cual talesmargenes no se corresponden necesariamente con las condiciones de mercado ni obedecen a una lista formal de precios de venta. Para cada transaccion de venta se acuerdan los precios de venta de la misma. En el 2019 hubieron ingresos por servicios prestados por Us$218 mil los mismos que no tuvieron costos adicionales y fueron cubiertos con la infraestructura fija de la empresa; en el 2020 no se repitieron estos ingresos por lo cual el margen disminuye directamente en el mismo importe de US$218 mil y la diferencia de US$62 mil se explica por un mayor numero de unidades (baterias) vendidas</t>
+  </si>
+  <si>
+    <t>% margen</t>
+  </si>
+  <si>
+    <t>En el 2019 se incurrieron en gastos de movilizacion por US$30 mil los cuales no se dieron en el presente ejercicio. En adicion se incurrieron en menores de gastos de honorarios por servicios profesionales.</t>
+  </si>
+  <si>
+    <t>Disminucion de la utilidad operacional debido a menor margen de ventas -US$156 mil compensado en +US$63 mil por menores gastos de administracion y ventas</t>
+  </si>
+  <si>
+    <t>Reduccion de la utilidad antes de impuesto a la renta debido a los motivos explicados en la reduccion de la utilidad operacional</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1674,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1725,6 +1749,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2068,12 +2108,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,7 +2197,9 @@
         <f>+F7/D7</f>
         <v>-0.27036154422278202</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="16" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
@@ -2170,7 +2212,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>458</v>
       </c>
@@ -2193,10 +2235,10 @@
         <v>-6.2100861125147448E-2</v>
       </c>
       <c r="H9" s="51" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>459</v>
       </c>
@@ -2220,7 +2262,9 @@
         <f t="shared" si="1"/>
         <v>-0.54422221086892086</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="51" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
@@ -2236,7 +2280,9 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="16" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
@@ -2259,9 +2305,11 @@
         <f t="shared" si="1"/>
         <v>2.2320910251944735E-2</v>
       </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H12" s="16" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>455</v>
       </c>
@@ -2285,7 +2333,7 @@
         <v>0.14355849137742727</v>
       </c>
       <c r="H13" s="51" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2384,7 +2432,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>463</v>
       </c>
@@ -2406,11 +2454,11 @@
         <f t="shared" ref="G20:G24" si="3">+F20/D20</f>
         <v>-1</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="51" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>459</v>
       </c>
@@ -2431,8 +2479,8 @@
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>470</v>
+      <c r="H21" s="51" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -2468,7 +2516,9 @@
         <f t="shared" si="3"/>
         <v>-0.13717638691322895</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="16" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
@@ -2591,7 +2641,7 @@
       </c>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>244</v>
       </c>
@@ -2612,11 +2662,11 @@
         <f t="shared" si="5"/>
         <v>-0.57940890669068323</v>
       </c>
-      <c r="H30" s="16" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="51" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>245</v>
       </c>
@@ -2640,7 +2690,9 @@
         <f t="shared" si="5"/>
         <v>-1.9295401775292274</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="H31" s="51" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
@@ -2784,26 +2836,41 @@
       <c r="B39" t="s">
         <v>419</v>
       </c>
-      <c r="C39" s="10" t="e">
-        <f>360/(+ER!B6/((BG!D9+BG!C9)/2))</f>
-        <v>#VALUE!</v>
+      <c r="C39" s="10">
+        <f>360/(+ER!C6/((BG!D9+BG!C9)/2))</f>
+        <v>121.14834814083578</v>
       </c>
       <c r="D39" s="10">
-        <f>360/(+ER!D6/((BG!E9+BG!D9)/2))</f>
-        <v>60.726121409367479</v>
+        <f>360/(+ER!D6/(+BG!D9))</f>
+        <v>120.97467100608462</v>
       </c>
       <c r="E39" s="10">
         <f>360/(+ER!E6/((BG!F9+72370)/2))</f>
         <v>13.86271638781273</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="10">
+        <f>+C39-D39</f>
+        <v>0.1736771347511592</v>
+      </c>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="B40" t="s">
+        <v>473</v>
+      </c>
+      <c r="C40" s="10">
+        <f>360/(+ER!C7/BG!C13)</f>
+        <v>85.802103960692762</v>
+      </c>
+      <c r="D40" s="10">
+        <f>360/(+ER!D7/BG!D13)</f>
+        <v>115.7212795921418</v>
+      </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="F40" s="10">
+        <f>+C40-D40</f>
+        <v>-29.919175631449036</v>
+      </c>
       <c r="G40" s="10"/>
     </row>
   </sheetData>
@@ -2816,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2870,30 +2937,30 @@
         <v>467</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="53" t="s">
         <v>420</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="54">
         <f>-'BC 20'!J91</f>
         <v>547020</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="54">
         <v>565360</v>
       </c>
       <c r="E6" s="17">
         <v>786493</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="54">
         <f>+C6-D6</f>
         <v>-18340</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="56">
         <f>+F6/D6</f>
         <v>-3.2439507570397624E-2</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2918,36 +2985,40 @@
         <f t="shared" ref="G7:G8" si="1">+F7/D7</f>
         <v>0.54231709715742349</v>
       </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="H7" s="52" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="55">
         <f>+C6-C7</f>
         <v>154953.74</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="55">
         <f>+D6-D7</f>
         <v>311154</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="55">
         <f>+E6-E7</f>
         <v>190248</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="55">
         <f t="shared" si="0"/>
         <v>-156200.26</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="56">
         <f t="shared" si="1"/>
         <v>-0.50200305957821534</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
+      <c r="B9" s="57" t="s">
+        <v>480</v>
+      </c>
       <c r="C9" s="23">
         <f>+C8/C6</f>
         <v>0.28326887499542974</v>
@@ -2960,7 +3031,10 @@
         <f>+E8/E6</f>
         <v>0.24189407915900077</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="23">
+        <f>+C9-D9</f>
+        <v>-0.26709549460977755</v>
+      </c>
       <c r="G9" s="44"/>
       <c r="H9" s="16"/>
     </row>
@@ -2999,7 +3073,7 @@
         <v>-0.42777023119443736</v>
       </c>
       <c r="H11" s="51" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3020,7 +3094,7 @@
       <c r="G12" s="44"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>466</v>
       </c>
@@ -3041,14 +3115,16 @@
         <f>+F13/D13</f>
         <v>-0.56995629370629375</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="51" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="17"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="44"/>
       <c r="H14" s="16"/>
     </row>
@@ -3064,11 +3140,14 @@
         <v>-120</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="F15" s="18">
+        <f t="shared" ref="F14:F15" si="3">+C15-D15</f>
+        <v>-890.36</v>
+      </c>
       <c r="G15" s="44"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>252</v>
       </c>
@@ -3092,7 +3171,9 @@
         <f>+F16/D16</f>
         <v>-0.57586257454043666</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="51" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
@@ -3146,15 +3227,15 @@
         <v>19672</v>
       </c>
       <c r="F19" s="17">
-        <f t="shared" ref="F19:F20" si="3">+C19-D19</f>
+        <f t="shared" ref="F19:F20" si="4">+C19-D19</f>
         <v>-20137</v>
       </c>
       <c r="G19" s="44">
-        <f t="shared" ref="G19:G20" si="4">+F19/D19</f>
+        <f t="shared" ref="G19:G20" si="5">+F19/D19</f>
         <v>-0.56328848359394668</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -3173,11 +3254,11 @@
         <v>61773</v>
       </c>
       <c r="F20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-73341.62000000001</v>
       </c>
       <c r="G20" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.5794138048175449</v>
       </c>
       <c r="H20" s="19"/>
@@ -3201,6 +3282,9 @@
       <c r="C23" s="50"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H7:H8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
